--- a/音视频/ffmpeg/ffmpeg表.xlsx
+++ b/音视频/ffmpeg/ffmpeg表.xlsx
@@ -9,18 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15100" yWindow="460" windowWidth="30640" windowHeight="18720" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="5720" yWindow="460" windowWidth="30640" windowHeight="18720" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="mp4表" sheetId="4" r:id="rId2"/>
-    <sheet name="工作表5" sheetId="5" r:id="rId3"/>
+    <sheet name="mp4biano" sheetId="5" r:id="rId3"/>
     <sheet name="工作表2" sheetId="2" r:id="rId4"/>
-    <sheet name="工作表3" sheetId="3" r:id="rId5"/>
+    <sheet name="vmhd" sheetId="7" r:id="rId5"/>
+    <sheet name="工作表3" sheetId="3" r:id="rId6"/>
+    <sheet name="ffmpge解析mp4" sheetId="8" r:id="rId7"/>
+    <sheet name="mp4封装" sheetId="9" r:id="rId8"/>
+    <sheet name="mvhd" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="txtTest" localSheetId="3">工作表2!$A$1:$A$200</definedName>
-    <definedName name="txtTest" localSheetId="4">工作表3!$A$1:$N$200</definedName>
+    <definedName name="txtTest" localSheetId="5">工作表3!$A$1:$N$200</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -67,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2146" uniqueCount="796">
   <si>
     <t>参数</t>
     <rPh sb="0" eb="1">
@@ -5464,12 +5468,1712 @@
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>mvhd参数</t>
+    <rPh sb="4" eb="5">
+      <t>can'shu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度/字节</t>
+    <rPh sb="0" eb="1">
+      <t>chang'du</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zi'jie</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time scale</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Duration</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poster time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Selection time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Selection duration</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Size(尺寸)</t>
+    <rPh sb="5" eb="6">
+      <t>ci'cun</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type(类型)</t>
+    <rPh sb="5" eb="6">
+      <t>lei'x</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Version(版本)</t>
+    <rPh sb="8" eb="9">
+      <t>b'b</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flags(标志)</t>
+    <rPh sb="6" eb="7">
+      <t>biao'z</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Creation time(生成时间)</t>
+    <rPh sb="14" eb="15">
+      <t>sheng'c</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>shi'j</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modification time(修订时间)</t>
+    <rPh sb="18" eb="19">
+      <t>xiu'ding</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>shi'j</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Preferred rate(播放速度)</t>
+    <rPh sb="15" eb="16">
+      <t>bo'fang</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>su'du</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reserved(保留)</t>
+    <rPh sb="9" eb="10">
+      <t>bao'liu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Matrix structure(矩阵结构)</t>
+    <rPh sb="17" eb="18">
+      <t>ju'z</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>jie'gou</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Preview time(预览时间)</t>
+    <rPh sb="13" eb="14">
+      <t>uylan</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>shi'j</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Preview duration(预览持续时间)</t>
+    <rPh sb="17" eb="18">
+      <t>yu'l</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>chi'x</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>shi'j</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current time(当前时间)</t>
+    <rPh sb="13" eb="14">
+      <t>dang'qian</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>shi'j</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Next track ID(下一个track ID)</t>
+    <rPh sb="14" eb="15">
+      <t>xia'yi'ge</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>播放音量</t>
+    <rPh sb="0" eb="1">
+      <t>bo'fag</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yin'l</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>36</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>movie header atom的字节数</t>
+    <rPh sb="17" eb="18">
+      <t>de</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>zi'jie</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>shu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>movie header atom的版本</t>
+    <rPh sb="18" eb="19">
+      <t>b'b</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展的movie header 标志, 0</t>
+    <rPh sb="0" eb="1">
+      <t>kuo'z</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>biao'z</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Movie atom 的修订时间, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基准时间是 1904-1-1 0:0AM</t>
+    </r>
+    <rPh sb="12" eb="13">
+      <t>xiu'ding</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>shi'j</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Movie atom 的起始时间,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基准时间是 1904-1-1 0:0AM</t>
+    </r>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>qi'sh</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>shi'j</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ji'zhun</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>shi'j</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>shi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间计算单位, 就像是系统时间单位换位为60秒一样</t>
+    <rPh sb="0" eb="1">
+      <t>shi'j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'saun'n</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dan'wei</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jiu'xiang'shi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xi'tong</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shi'j</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>dan'wei</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>huan'wei</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>miao</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>yi'y</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过这个值可以得到影片的播放长度时间值</t>
+    <rPh sb="0" eb="1">
+      <t>ton'n'g'g</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhe'g</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ke'y</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de'dao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yinn'p</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>bo'fang</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>chagn'du</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>shi'j</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>播放此movie的速度, 1.0为正常播放速度(16.16的浮点表示)</t>
+    <rPh sb="0" eb="1">
+      <t>bo'fang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ci</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>su'd</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zheng'c</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>bo'fng</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>su'du</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>de</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>fu'dian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>播放此movie的音量. 1.0为最大音量(8.8的浮点表示)</t>
+    <rPh sb="0" eb="1">
+      <t>bo'fang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ci</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yin'l</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zui'da</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>yin'l</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>de</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>fu'dian</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>biao's</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>该矩阵定义了此movie 中两个坐标空间的映射关系</t>
+    <rPh sb="0" eb="1">
+      <t>gai</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ju'z</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ding'yi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>l</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ci</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>liang'ge</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>zuo'biao</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>kong'jian</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>de</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ying's</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>guan'x</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始预览此movie的时间</t>
+    <rPh sb="0" eb="1">
+      <t>kai'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yu'lan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ci</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shi'j</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以Movie的time scale为单位, 预览的duration</t>
+    <rPh sb="0" eb="1">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>dan'we</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>yu'l</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>poster的时间值</t>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shi'jian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前选择时间的开始时间值</t>
+    <rPh sb="0" eb="1">
+      <t>dang</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>qian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xuan'z</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi'j</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>kai'shi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shi'j</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前选择时间的计算后的时间值</t>
+    <rPh sb="0" eb="1">
+      <t>dang'qian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xuan'z</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi'j</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ji'saun</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shi'jian</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前时间</t>
+    <rPh sb="0" eb="1">
+      <t>dang'qian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'j</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一个待添加track的ID值. 0不是一个有效的ID值.</t>
+    <rPh sb="0" eb="1">
+      <t>xia'y'ge</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>dai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tian'jia</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>bu'shi</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>yi'ge</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>you'xiao</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>de</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vmhd参数</t>
+    <rPh sb="4" eb="5">
+      <t>can'shu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度/字节</t>
+    <rPh sb="0" eb="1">
+      <t>chang'd</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zi'jie</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>size(尺寸)</t>
+    <rPh sb="5" eb="6">
+      <t>c'c</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Graphice mode(图形模式)</t>
+    <rPh sb="14" eb="15">
+      <t>tu'xing</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>mo'shi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Opcolor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个Atom的字节数</t>
+    <rPh sb="0" eb="1">
+      <t>zhe'g</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zi'j</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个Atom的版本</t>
+    <rPh sb="0" eb="1">
+      <t>zhe'g</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>b'b</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定为0x000001</t>
+    <rPh sb="0" eb="1">
+      <t>gu'ding</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wei</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>传输模式, 传输模式指定的布尔值</t>
+    <rPh sb="0" eb="1">
+      <t>chuan'shu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mo'shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>chuan'shu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>mo'shi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ding</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>bu'er'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜色值, RGB颜色值</t>
+    <rPh sb="0" eb="1">
+      <t>yan'se'zhi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yan'se'z</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ffmpeg 解封装MP4常用参数</t>
+    <rPh sb="7" eb="8">
+      <t>jie</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>feng'z</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>chang'yong</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>can'shu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>use_absolute_path</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seek_streams_individually</t>
+  </si>
+  <si>
+    <t>ignore_editlist</t>
+  </si>
+  <si>
+    <t>ignore_chapters</t>
+  </si>
+  <si>
+    <t>布尔</t>
+    <rPh sb="0" eb="1">
+      <t>bu'er</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>enable_drefs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以通过绝对路径加载外部的track, 可能会有安全因素的影响, 默认不开启</t>
+    <rPh sb="0" eb="1">
+      <t>ke'yi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tong'g</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jue'dui</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>lu'jinng</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jia'zai</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wai'bu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ke'neng</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>hui'you</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>an'q</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>yin'su</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>de</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ying'x</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>mo'ren</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>b'bu</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>kai'qi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据单独流进行seek, 默认开启</t>
+    <rPh sb="0" eb="1">
+      <t>gen'j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dan'du</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>liu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jin'x</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>mo'ren</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>kai'q</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽略EditList Atom 信息, 默认不开启</t>
+    <rPh sb="0" eb="1">
+      <t>hu'l</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>xin'x</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>mo'ren</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>kai'q</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽略Chapters 信息, 默认不开启</t>
+    <rPh sb="0" eb="1">
+      <t>hu'l</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xin'x</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>mo'ren</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>kai'q</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外部track 支持, 默认不开启</t>
+    <rPh sb="0" eb="1">
+      <t>wai'bu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhi'c</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>mo'ren</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>kai'q</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ffmpeg封装mp4常用参数</t>
+    <rPh sb="6" eb="7">
+      <t>feng'z</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>chang'yong</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>can'shu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>movflags</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rtphint</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>empty_moov</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>frag_keyframe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>separate_moof</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>frag_custom</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>isml</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>faststart</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>omit_tfhd_offset</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>disable_chpl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>default_base_moof</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dash</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>frag_discont</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>delay_moov</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>global_sidx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>write_colr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>write_gama</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>moov_size</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正整数</t>
+    <rPh sb="0" eb="1">
+      <t>zheng'z's</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rtpflags</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>latm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rfc2190</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skip_rtcp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>h264_mode0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>send_bye</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skip_iods</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iods_audio_proflie</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iods_video_profile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>frag_duration</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>min_frag_duratiom</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mp4Muxer标记</t>
+    <rPh sb="8" eb="9">
+      <t>biao'ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加RTP的hint track</t>
+    <rPh sb="0" eb="1">
+      <t>zeng'j</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化空的moov box</t>
+    <rPh sb="0" eb="1">
+      <t>chu'shi'hua</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>kong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在视频关键帧处切片</t>
+    <rPh sb="0" eb="1">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>shi'p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>guan'jian'z</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhen</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>chu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>qie'p</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一个track写独立的moof/mdat box</t>
+    <rPh sb="0" eb="1">
+      <t>mei'yg'ie</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xie</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>du'li</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一个caller 请求时flush一个片段</t>
+    <rPh sb="0" eb="1">
+      <t>mei'yi'ge</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>qing'q</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>yi'ge</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>pian'd</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建实时流媒体(创建一个直播流发布点)</t>
+    <rPh sb="0" eb="1">
+      <t>chuang'j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>liu'mei't</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chuang'j</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yi'ge</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zhi'bo</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>liu</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>fa'bu</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>dian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将moov box 移动到文件的头部</t>
+    <rPh sb="0" eb="1">
+      <t>jiang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yi'do'n'n'g</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>wen'jian</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>de</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>tou'bu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽略tfhd容器中的基础数据偏移</t>
+    <rPh sb="0" eb="1">
+      <t>hu'l</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>rong'qi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ji'chu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>pian'yi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭Nero Chapter</t>
+    <rPh sb="0" eb="1">
+      <t>guan'bi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在tfhd容器中设置default_base_is_moof标记</t>
+    <rPh sb="0" eb="1">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>rong'qi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>she'zhi</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>biao'ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼容DASH格式的mp4分片</t>
+    <rPh sb="0" eb="1">
+      <t>jian'rong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ge'shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>fen'p</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分片不连续式设置discontinuous信号</t>
+    <rPh sb="0" eb="1">
+      <t>fen'p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>lian'xu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>she'zhi</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>xin'hao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>延迟写入moov信息, 直到第一个分片切出来, 或者第一片被刷掉</t>
+    <rPh sb="0" eb="1">
+      <t>yan'chi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xie'ru</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xin'x</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zhi'dao</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>di'y'ge</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>fen'p</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>qie</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>chu'l</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>huo'z</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>di'yi'pian</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>bei</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>shua</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>diao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在文件的开头设置公共的sidx索引</t>
+    <rPh sb="0" eb="1">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>wen'jian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>kai'tou</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>she'zhi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gong'g</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>suo'yin</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>写入colr容器</t>
+    <rPh sb="0" eb="1">
+      <t>xie'ru</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>rong'qi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>写被弃用的gama容器</t>
+    <rPh sb="0" eb="1">
+      <t>xie</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>bei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qi'yong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>rong'qi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置moov容器大小的最大值</t>
+    <rPh sb="0" eb="1">
+      <t>she'zhi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>rong'qi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>da'xia'p</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xiao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zui'da'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置rtp传输相关的标记</t>
+    <rPh sb="0" eb="1">
+      <t>she'zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chuan'shu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xiang'g</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>biao'ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用MP4-LATM 方式传输AAC 音频</t>
+    <rPh sb="0" eb="1">
+      <t>shi'yong</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>fang'shi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>chuan'suh</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>yin'p</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用RFC2190传输H.264 H.263</t>
+    <rPh sb="0" eb="1">
+      <t>shi'y</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>chuan'shu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽略使用RTCP</t>
+    <rPh sb="0" eb="1">
+      <t>hu'l</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'y</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用RTP传输mode0的H264</t>
+    <rPh sb="0" eb="1">
+      <t>shi'y</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chuan'sjhu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当传输结束时发送RTCP的BYE包</t>
+    <rPh sb="0" eb="1">
+      <t>dang</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>chuan'shu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jie'shu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fa'song</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>bao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-255</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不写入iods容器</t>
+    <rPh sb="0" eb="1">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>xie'ru</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>rong'qi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置iods的音频 profile容器</t>
+    <rPh sb="0" eb="1">
+      <t>she'zhi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yin'p</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>rong'qi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置iods的视频 profile容器</t>
+    <rPh sb="0" eb="1">
+      <t>she'zhi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shi'p</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>rong'qi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>切片最大的durationn</t>
+    <rPh sb="0" eb="1">
+      <t>qie'p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zui'da</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>切片最小的duration</t>
+    <rPh sb="0" eb="1">
+      <t>qie'p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zui'x</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>frag_size</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ism_lookahead</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>video_track_timescale</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>brand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>use_editlist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fragment_index</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mov_gamma</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>frag_interleave</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>encryption_scheme</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>encryption_key</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>encryption_kid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二进制</t>
+    <rPh sb="0" eb="1">
+      <t>er'jin'z</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串</t>
+    <rPh sb="0" eb="1">
+      <t>zi'fu'c</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>切片最大的大小</t>
+    <rPh sb="0" eb="1">
+      <t>qie'p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zui'da</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>da'x</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预读取ISM文件的数量</t>
+    <rPh sb="0" eb="1">
+      <t>yu'du'qu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wen'jian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shu'l</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置所有视频的时间计算方式</t>
+    <rPh sb="0" eb="1">
+      <t>she'zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>suo'you</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi'p</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shi'jian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ji'saun</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>fang'shi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>写major brand</t>
+    <rPh sb="0" eb="1">
+      <t>xie</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5721,6 +7425,18 @@
       <name val="等线 Regular"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -5803,7 +7519,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5825,8 +7541,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5927,10 +7645,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -5963,8 +7697,24 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="23">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -5976,6 +7726,7 @@
     <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -5986,6 +7737,7 @@
     <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -21271,30 +23023,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:I2587"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:I92"/>
+    <sheetView topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97:D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="5" width="16.83203125" customWidth="1"/>
-    <col min="6" max="6" width="16.83203125" style="54" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" style="60" customWidth="1"/>
     <col min="7" max="7" width="16.83203125" customWidth="1"/>
     <col min="8" max="8" width="16.83203125" style="10" customWidth="1"/>
     <col min="9" max="9" width="76.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="2:9" ht="65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="48" t="s">
         <v>483</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
     </row>
     <row r="8" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="45" t="s">
@@ -21305,838 +23057,838 @@
       <c r="E8" s="45"/>
       <c r="F8" s="45"/>
       <c r="G8" s="45"/>
-      <c r="H8" s="47" t="s">
+      <c r="H8" s="49" t="s">
         <v>485</v>
       </c>
-      <c r="I8" s="47" t="s">
+      <c r="I8" s="49" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="55" t="s">
         <v>487</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="55" t="s">
         <v>488</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="55" t="s">
         <v>489</v>
       </c>
-      <c r="E9" s="49" t="s">
+      <c r="E9" s="55" t="s">
         <v>490</v>
       </c>
-      <c r="F9" s="52" t="s">
+      <c r="F9" s="58" t="s">
         <v>491</v>
       </c>
-      <c r="G9" s="49" t="s">
+      <c r="G9" s="55" t="s">
         <v>492</v>
       </c>
-      <c r="H9" s="48" t="s">
+      <c r="H9" s="54" t="s">
         <v>493</v>
       </c>
-      <c r="I9" s="48" t="s">
+      <c r="I9" s="54" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="53"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="59"/>
       <c r="H10" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="I10" s="50" t="s">
+      <c r="I10" s="56" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="57" t="s">
         <v>496</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="53"/>
-      <c r="I11" s="50" t="s">
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="59"/>
+      <c r="I11" s="56" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="68" t="s">
         <v>497</v>
       </c>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="65" t="s">
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="71" t="s">
         <v>512</v>
       </c>
-      <c r="I12" s="66" t="s">
+      <c r="I12" s="72" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="51"/>
-      <c r="C13" s="51" t="s">
+      <c r="B13" s="57"/>
+      <c r="C13" s="57" t="s">
         <v>498</v>
       </c>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="53"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="59"/>
       <c r="H13" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="I13" s="50" t="s">
+      <c r="I13" s="56" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="51"/>
-      <c r="C14" s="51" t="s">
+      <c r="B14" s="57"/>
+      <c r="C14" s="57" t="s">
         <v>499</v>
       </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="53"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="59"/>
       <c r="H14" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="I14" s="50" t="s">
+      <c r="I14" s="56" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51" t="s">
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57" t="s">
         <v>500</v>
       </c>
-      <c r="E15" s="51"/>
-      <c r="F15" s="53"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="59"/>
       <c r="H15" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="I15" s="50" t="s">
+      <c r="I15" s="56" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51" t="s">
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57" t="s">
         <v>501</v>
       </c>
-      <c r="E16" s="51"/>
-      <c r="F16" s="53"/>
-      <c r="I16" s="50" t="s">
+      <c r="E16" s="57"/>
+      <c r="F16" s="59"/>
+      <c r="I16" s="56" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51" t="s">
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57" t="s">
         <v>502</v>
       </c>
-      <c r="E17" s="51"/>
-      <c r="F17" s="53"/>
-      <c r="I17" s="50" t="s">
+      <c r="E17" s="57"/>
+      <c r="F17" s="59"/>
+      <c r="I17" s="56" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51" t="s">
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57" t="s">
         <v>504</v>
       </c>
-      <c r="F18" s="53"/>
-      <c r="I18" s="50" t="s">
+      <c r="F18" s="59"/>
+      <c r="I18" s="56" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51" t="s">
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57" t="s">
         <v>503</v>
       </c>
-      <c r="E19" s="51"/>
-      <c r="F19" s="53"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="59"/>
       <c r="H19" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="I19" s="50" t="s">
+      <c r="I19" s="56" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51" t="s">
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57" t="s">
         <v>505</v>
       </c>
-      <c r="F20" s="53"/>
+      <c r="F20" s="59"/>
       <c r="H20" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="I20" s="50" t="s">
+      <c r="I20" s="56" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51" t="s">
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57" t="s">
         <v>506</v>
       </c>
-      <c r="F21" s="53"/>
+      <c r="F21" s="59"/>
       <c r="H21" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="I21" s="50" t="s">
+      <c r="I21" s="56" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51" t="s">
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57" t="s">
         <v>507</v>
       </c>
-      <c r="F22" s="53"/>
+      <c r="F22" s="59"/>
       <c r="H22" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="I22" s="50" t="s">
+      <c r="I22" s="56" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="53" t="s">
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="59" t="s">
         <v>508</v>
       </c>
-      <c r="I23" s="50" t="s">
+      <c r="I23" s="56" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="53" t="s">
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="59" t="s">
         <v>509</v>
       </c>
-      <c r="I24" s="50" t="s">
+      <c r="I24" s="56" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="53" t="s">
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="59" t="s">
         <v>510</v>
       </c>
-      <c r="I25" s="50" t="s">
+      <c r="I25" s="56" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="53" t="s">
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="59" t="s">
         <v>511</v>
       </c>
-      <c r="I26" s="50" t="s">
+      <c r="I26" s="56" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="55" t="s">
         <v>487</v>
       </c>
-      <c r="C27" s="49" t="s">
+      <c r="C27" s="55" t="s">
         <v>488</v>
       </c>
-      <c r="D27" s="49" t="s">
+      <c r="D27" s="55" t="s">
         <v>489</v>
       </c>
-      <c r="E27" s="49" t="s">
+      <c r="E27" s="55" t="s">
         <v>490</v>
       </c>
-      <c r="F27" s="52" t="s">
+      <c r="F27" s="58" t="s">
         <v>491</v>
       </c>
-      <c r="G27" s="49" t="s">
+      <c r="G27" s="55" t="s">
         <v>492</v>
       </c>
-      <c r="H27" s="48" t="s">
+      <c r="H27" s="54" t="s">
         <v>493</v>
       </c>
-      <c r="I27" s="48" t="s">
+      <c r="I27" s="54" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="55" t="s">
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="61" t="s">
         <v>531</v>
       </c>
-      <c r="G28" s="51"/>
+      <c r="G28" s="57"/>
       <c r="H28" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="I28" s="56" t="s">
+      <c r="I28" s="62" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="29" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51" t="s">
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57" t="s">
         <v>533</v>
       </c>
       <c r="H29" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="I29" s="56" t="s">
+      <c r="I29" s="62" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51" t="s">
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57" t="s">
         <v>532</v>
       </c>
-      <c r="G30" s="51"/>
+      <c r="G30" s="57"/>
       <c r="H30" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="I30" s="56" t="s">
+      <c r="I30" s="62" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51" t="s">
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57" t="s">
         <v>534</v>
       </c>
       <c r="H31" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="I31" s="56" t="s">
+      <c r="I31" s="62" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="51"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51" t="s">
+      <c r="B32" s="57"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57" t="s">
         <v>535</v>
       </c>
       <c r="H32" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="I32" s="56" t="s">
+      <c r="I32" s="62" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="51" t="s">
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57" t="s">
         <v>536</v>
       </c>
       <c r="H33" s="10" t="s">
         <v>570</v>
       </c>
-      <c r="I33" s="56" t="s">
+      <c r="I33" s="62" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="34" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="51"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51" t="s">
+      <c r="B34" s="57"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57" t="s">
         <v>537</v>
       </c>
       <c r="H34" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="I34" s="56" t="s">
+      <c r="I34" s="62" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="35" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="51"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51" t="s">
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57" t="s">
         <v>538</v>
       </c>
-      <c r="I35" s="56" t="s">
+      <c r="I35" s="62" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="36" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="51"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51" t="s">
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57" t="s">
         <v>539</v>
       </c>
-      <c r="I36" s="56" t="s">
+      <c r="I36" s="62" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="37" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="51"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51" t="s">
+      <c r="B37" s="57"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57" t="s">
         <v>540</v>
       </c>
       <c r="H37" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="I37" s="56" t="s">
+      <c r="I37" s="62" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="38" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="51"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51" t="s">
+      <c r="B38" s="57"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="57" t="s">
         <v>541</v>
       </c>
-      <c r="I38" s="56" t="s">
+      <c r="I38" s="62" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="39" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="51"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51" t="s">
+      <c r="B39" s="57"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57" t="s">
         <v>542</v>
       </c>
-      <c r="I39" s="56" t="s">
+      <c r="I39" s="62" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="40" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="51"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51" t="s">
+      <c r="B40" s="57"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="57" t="s">
         <v>543</v>
       </c>
-      <c r="I40" s="56" t="s">
+      <c r="I40" s="62" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="41" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="51"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="51" t="s">
+      <c r="B41" s="57"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="57" t="s">
         <v>544</v>
       </c>
-      <c r="I41" s="56" t="s">
+      <c r="I41" s="62" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="42" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="51"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="51" t="s">
+      <c r="B42" s="57"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="57" t="s">
         <v>545</v>
       </c>
-      <c r="I42" s="56" t="s">
+      <c r="I42" s="62" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="43" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="51"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="51" t="s">
+      <c r="B43" s="57"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="57" t="s">
         <v>546</v>
       </c>
-      <c r="I43" s="56" t="s">
+      <c r="I43" s="62" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="44" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="51"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="51" t="s">
+      <c r="B44" s="57"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="57" t="s">
         <v>547</v>
       </c>
-      <c r="I44" s="56" t="s">
+      <c r="I44" s="62" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="45" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="51"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="51" t="s">
+      <c r="B45" s="57"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="57" t="s">
         <v>548</v>
       </c>
-      <c r="I45" s="56" t="s">
+      <c r="I45" s="62" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="46" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="51"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="51" t="s">
+      <c r="B46" s="57"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="57" t="s">
         <v>549</v>
       </c>
-      <c r="I46" s="56" t="s">
+      <c r="I46" s="62" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="47" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="51"/>
-      <c r="C47" s="51" t="s">
+      <c r="B47" s="57"/>
+      <c r="C47" s="57" t="s">
         <v>550</v>
       </c>
-      <c r="D47" s="51"/>
-      <c r="E47" s="51"/>
-      <c r="F47" s="51"/>
-      <c r="G47" s="51"/>
-      <c r="I47" s="56" t="s">
+      <c r="D47" s="57"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="57"/>
+      <c r="I47" s="62" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="48" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="51"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51" t="s">
+      <c r="B48" s="57"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="57" t="s">
         <v>551</v>
       </c>
-      <c r="E48" s="51"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="51"/>
-      <c r="I48" s="56" t="s">
+      <c r="E48" s="57"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="57"/>
+      <c r="I48" s="62" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="51"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="51" t="s">
+      <c r="B49" s="57"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="57" t="s">
         <v>552</v>
       </c>
-      <c r="E49" s="51"/>
-      <c r="F49" s="51"/>
-      <c r="G49" s="51"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="57"/>
       <c r="H49" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="I49" s="56" t="s">
+      <c r="I49" s="62" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="50" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="51"/>
-      <c r="C50" s="51" t="s">
+      <c r="B50" s="57"/>
+      <c r="C50" s="57" t="s">
         <v>553</v>
       </c>
-      <c r="D50" s="51"/>
-      <c r="E50" s="51"/>
-      <c r="F50" s="51"/>
-      <c r="G50" s="51"/>
-      <c r="I50" s="56" t="s">
+      <c r="D50" s="57"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="57"/>
+      <c r="G50" s="57"/>
+      <c r="I50" s="62" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="51" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="51" t="s">
+      <c r="B51" s="57" t="s">
         <v>554</v>
       </c>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
-      <c r="E51" s="51"/>
-      <c r="F51" s="51"/>
-      <c r="G51" s="51"/>
-      <c r="I51" s="56" t="s">
+      <c r="C51" s="57"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="57"/>
+      <c r="G51" s="57"/>
+      <c r="I51" s="62" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="52" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="51"/>
-      <c r="C52" s="51" t="s">
+      <c r="B52" s="57"/>
+      <c r="C52" s="57" t="s">
         <v>555</v>
       </c>
-      <c r="D52" s="51"/>
-      <c r="E52" s="51"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="51"/>
+      <c r="D52" s="57"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="57"/>
+      <c r="G52" s="57"/>
       <c r="H52" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="I52" s="56" t="s">
+      <c r="I52" s="62" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="53" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="51"/>
-      <c r="C53" s="51" t="s">
+      <c r="B53" s="57"/>
+      <c r="C53" s="57" t="s">
         <v>556</v>
       </c>
-      <c r="D53" s="51"/>
-      <c r="E53" s="51"/>
-      <c r="F53" s="51"/>
-      <c r="G53" s="51"/>
-      <c r="I53" s="56" t="s">
+      <c r="D53" s="57"/>
+      <c r="E53" s="57"/>
+      <c r="F53" s="57"/>
+      <c r="G53" s="57"/>
+      <c r="I53" s="62" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="54" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="51"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="51" t="s">
+      <c r="B54" s="57"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="57" t="s">
         <v>557</v>
       </c>
-      <c r="E54" s="51"/>
-      <c r="F54" s="51"/>
-      <c r="G54" s="51"/>
+      <c r="E54" s="57"/>
+      <c r="F54" s="57"/>
+      <c r="G54" s="57"/>
       <c r="H54" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="I54" s="56" t="s">
+      <c r="I54" s="62" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="55" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="51"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51" t="s">
+      <c r="B55" s="57"/>
+      <c r="C55" s="57"/>
+      <c r="D55" s="57" t="s">
         <v>558</v>
       </c>
-      <c r="E55" s="51"/>
-      <c r="F55" s="51"/>
-      <c r="G55" s="51"/>
-      <c r="I55" s="56" t="s">
+      <c r="E55" s="57"/>
+      <c r="F55" s="57"/>
+      <c r="G55" s="57"/>
+      <c r="I55" s="62" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="56" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="51"/>
-      <c r="C56" s="51"/>
-      <c r="D56" s="51" t="s">
+      <c r="B56" s="57"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="57" t="s">
         <v>546</v>
       </c>
-      <c r="E56" s="51"/>
-      <c r="F56" s="51"/>
-      <c r="G56" s="51"/>
-      <c r="I56" s="56" t="s">
+      <c r="E56" s="57"/>
+      <c r="F56" s="57"/>
+      <c r="G56" s="57"/>
+      <c r="I56" s="62" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="57" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="51"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51" t="s">
+      <c r="B57" s="57"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="57" t="s">
         <v>547</v>
       </c>
-      <c r="E57" s="51"/>
-      <c r="F57" s="51"/>
-      <c r="G57" s="51"/>
-      <c r="I57" s="56" t="s">
+      <c r="E57" s="57"/>
+      <c r="F57" s="57"/>
+      <c r="G57" s="57"/>
+      <c r="I57" s="62" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="58" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="51"/>
-      <c r="C58" s="51"/>
-      <c r="D58" s="51" t="s">
+      <c r="B58" s="57"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="57" t="s">
         <v>549</v>
       </c>
-      <c r="E58" s="51"/>
-      <c r="F58" s="51"/>
-      <c r="G58" s="51"/>
-      <c r="I58" s="56" t="s">
+      <c r="E58" s="57"/>
+      <c r="F58" s="57"/>
+      <c r="G58" s="57"/>
+      <c r="I58" s="62" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="59" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="51" t="s">
+      <c r="B59" s="57" t="s">
         <v>559</v>
       </c>
-      <c r="C59" s="51"/>
-      <c r="D59" s="51"/>
-      <c r="E59" s="51"/>
-      <c r="F59" s="51"/>
-      <c r="G59" s="51"/>
-      <c r="I59" s="56" t="s">
+      <c r="C59" s="57"/>
+      <c r="D59" s="57"/>
+      <c r="E59" s="57"/>
+      <c r="F59" s="57"/>
+      <c r="G59" s="57"/>
+      <c r="I59" s="62" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="60" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="51"/>
-      <c r="C60" s="51" t="s">
+      <c r="B60" s="57"/>
+      <c r="C60" s="57" t="s">
         <v>560</v>
       </c>
-      <c r="D60" s="51"/>
-      <c r="E60" s="51"/>
-      <c r="F60" s="51"/>
-      <c r="G60" s="51"/>
-      <c r="I60" s="56" t="s">
+      <c r="D60" s="57"/>
+      <c r="E60" s="57"/>
+      <c r="F60" s="57"/>
+      <c r="G60" s="57"/>
+      <c r="I60" s="62" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="61" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="51"/>
-      <c r="C61" s="51" t="s">
+      <c r="B61" s="57"/>
+      <c r="C61" s="57" t="s">
         <v>561</v>
       </c>
-      <c r="D61" s="51"/>
-      <c r="E61" s="51"/>
-      <c r="F61" s="51"/>
-      <c r="G61" s="51"/>
+      <c r="D61" s="57"/>
+      <c r="E61" s="57"/>
+      <c r="F61" s="57"/>
+      <c r="G61" s="57"/>
       <c r="H61" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="I61" s="56" t="s">
+      <c r="I61" s="62" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="62" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="62" t="s">
+      <c r="B62" s="68" t="s">
         <v>562</v>
       </c>
-      <c r="C62" s="62"/>
-      <c r="D62" s="62"/>
-      <c r="E62" s="62"/>
-      <c r="F62" s="62"/>
-      <c r="G62" s="62"/>
-      <c r="H62" s="65"/>
-      <c r="I62" s="67" t="s">
+      <c r="C62" s="68"/>
+      <c r="D62" s="68"/>
+      <c r="E62" s="68"/>
+      <c r="F62" s="68"/>
+      <c r="G62" s="68"/>
+      <c r="H62" s="71"/>
+      <c r="I62" s="73" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="63" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="51" t="s">
+      <c r="B63" s="57" t="s">
         <v>563</v>
       </c>
-      <c r="C63" s="51"/>
-      <c r="D63" s="51"/>
-      <c r="E63" s="51"/>
-      <c r="F63" s="51"/>
-      <c r="G63" s="51"/>
-      <c r="I63" s="56" t="s">
+      <c r="C63" s="57"/>
+      <c r="D63" s="57"/>
+      <c r="E63" s="57"/>
+      <c r="F63" s="57"/>
+      <c r="G63" s="57"/>
+      <c r="I63" s="62" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="64" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="51" t="s">
+      <c r="B64" s="57" t="s">
         <v>564</v>
       </c>
-      <c r="C64" s="51"/>
-      <c r="D64" s="51"/>
-      <c r="E64" s="51"/>
-      <c r="F64" s="51"/>
-      <c r="G64" s="51"/>
-      <c r="I64" s="56" t="s">
+      <c r="C64" s="57"/>
+      <c r="D64" s="57"/>
+      <c r="E64" s="57"/>
+      <c r="F64" s="57"/>
+      <c r="G64" s="57"/>
+      <c r="I64" s="62" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="65" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="49" t="s">
+      <c r="B65" s="55" t="s">
         <v>487</v>
       </c>
-      <c r="C65" s="49" t="s">
+      <c r="C65" s="55" t="s">
         <v>488</v>
       </c>
-      <c r="D65" s="49" t="s">
+      <c r="D65" s="55" t="s">
         <v>489</v>
       </c>
-      <c r="E65" s="49" t="s">
+      <c r="E65" s="55" t="s">
         <v>490</v>
       </c>
-      <c r="F65" s="52" t="s">
+      <c r="F65" s="58" t="s">
         <v>491</v>
       </c>
-      <c r="G65" s="49" t="s">
+      <c r="G65" s="55" t="s">
         <v>492</v>
       </c>
-      <c r="H65" s="48" t="s">
+      <c r="H65" s="54" t="s">
         <v>493</v>
       </c>
-      <c r="I65" s="48" t="s">
+      <c r="I65" s="54" t="s">
         <v>494</v>
       </c>
     </row>
@@ -22147,10 +23899,10 @@
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="60"/>
+      <c r="F66" s="66"/>
       <c r="G66" s="1"/>
       <c r="H66" s="9"/>
-      <c r="I66" s="61" t="s">
+      <c r="I66" s="67" t="s">
         <v>623</v>
       </c>
     </row>
@@ -22161,10 +23913,10 @@
         <v>601</v>
       </c>
       <c r="E67" s="1"/>
-      <c r="F67" s="60"/>
+      <c r="F67" s="66"/>
       <c r="G67" s="1"/>
       <c r="H67" s="9"/>
-      <c r="I67" s="61" t="s">
+      <c r="I67" s="67" t="s">
         <v>624</v>
       </c>
     </row>
@@ -22175,10 +23927,10 @@
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
-      <c r="F68" s="60"/>
+      <c r="F68" s="66"/>
       <c r="G68" s="1"/>
       <c r="H68" s="9"/>
-      <c r="I68" s="61" t="s">
+      <c r="I68" s="67" t="s">
         <v>625</v>
       </c>
     </row>
@@ -22189,12 +23941,12 @@
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
-      <c r="F69" s="60"/>
+      <c r="F69" s="66"/>
       <c r="G69" s="1"/>
       <c r="H69" s="9" t="s">
         <v>513</v>
       </c>
-      <c r="I69" s="61" t="s">
+      <c r="I69" s="67" t="s">
         <v>626</v>
       </c>
     </row>
@@ -22205,10 +23957,10 @@
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="60"/>
+      <c r="F70" s="66"/>
       <c r="G70" s="1"/>
       <c r="H70" s="9"/>
-      <c r="I70" s="61" t="s">
+      <c r="I70" s="67" t="s">
         <v>565</v>
       </c>
     </row>
@@ -22219,10 +23971,10 @@
         <v>533</v>
       </c>
       <c r="E71" s="1"/>
-      <c r="F71" s="60"/>
+      <c r="F71" s="66"/>
       <c r="G71" s="1"/>
       <c r="H71" s="9"/>
-      <c r="I71" s="61" t="s">
+      <c r="I71" s="67" t="s">
         <v>627</v>
       </c>
     </row>
@@ -22233,10 +23985,10 @@
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="60"/>
+      <c r="F72" s="66"/>
       <c r="G72" s="1"/>
       <c r="H72" s="9"/>
-      <c r="I72" s="61" t="s">
+      <c r="I72" s="67" t="s">
         <v>647</v>
       </c>
     </row>
@@ -22247,10 +23999,10 @@
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
-      <c r="F73" s="60"/>
+      <c r="F73" s="66"/>
       <c r="G73" s="1"/>
       <c r="H73" s="9"/>
-      <c r="I73" s="61" t="s">
+      <c r="I73" s="67" t="s">
         <v>628</v>
       </c>
     </row>
@@ -22261,10 +24013,10 @@
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
-      <c r="F74" s="60"/>
+      <c r="F74" s="66"/>
       <c r="G74" s="1"/>
       <c r="H74" s="9"/>
-      <c r="I74" s="61" t="s">
+      <c r="I74" s="67" t="s">
         <v>629</v>
       </c>
     </row>
@@ -22275,10 +24027,10 @@
         <v>605</v>
       </c>
       <c r="E75" s="1"/>
-      <c r="F75" s="60"/>
+      <c r="F75" s="66"/>
       <c r="G75" s="1"/>
       <c r="H75" s="9"/>
-      <c r="I75" s="61" t="s">
+      <c r="I75" s="67" t="s">
         <v>630</v>
       </c>
     </row>
@@ -22289,10 +24041,10 @@
       <c r="E76" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="F76" s="60"/>
+      <c r="F76" s="66"/>
       <c r="G76" s="1"/>
       <c r="H76" s="9"/>
-      <c r="I76" s="61" t="s">
+      <c r="I76" s="67" t="s">
         <v>631</v>
       </c>
     </row>
@@ -22303,10 +24055,10 @@
       <c r="E77" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="F77" s="60"/>
+      <c r="F77" s="66"/>
       <c r="G77" s="1"/>
       <c r="H77" s="9"/>
-      <c r="I77" s="61" t="s">
+      <c r="I77" s="67" t="s">
         <v>648</v>
       </c>
     </row>
@@ -22317,10 +24069,10 @@
       <c r="E78" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="F78" s="60"/>
+      <c r="F78" s="66"/>
       <c r="G78" s="1"/>
       <c r="H78" s="9"/>
-      <c r="I78" s="61" t="s">
+      <c r="I78" s="67" t="s">
         <v>632</v>
       </c>
     </row>
@@ -22331,10 +24083,10 @@
       <c r="E79" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="F79" s="60"/>
+      <c r="F79" s="66"/>
       <c r="G79" s="1"/>
       <c r="H79" s="9"/>
-      <c r="I79" s="61" t="s">
+      <c r="I79" s="67" t="s">
         <v>633</v>
       </c>
     </row>
@@ -22345,10 +24097,10 @@
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
-      <c r="F80" s="60"/>
+      <c r="F80" s="66"/>
       <c r="G80" s="1"/>
       <c r="H80" s="9"/>
-      <c r="I80" s="61" t="s">
+      <c r="I80" s="67" t="s">
         <v>634</v>
       </c>
     </row>
@@ -22359,10 +24111,10 @@
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
-      <c r="F81" s="60"/>
+      <c r="F81" s="66"/>
       <c r="G81" s="1"/>
       <c r="H81" s="9"/>
-      <c r="I81" s="61" t="s">
+      <c r="I81" s="67" t="s">
         <v>635</v>
       </c>
     </row>
@@ -22373,10 +24125,10 @@
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
-      <c r="F82" s="60"/>
+      <c r="F82" s="66"/>
       <c r="G82" s="1"/>
       <c r="H82" s="9"/>
-      <c r="I82" s="61" t="s">
+      <c r="I82" s="67" t="s">
         <v>636</v>
       </c>
     </row>
@@ -22387,10 +24139,10 @@
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
-      <c r="F83" s="60"/>
+      <c r="F83" s="66"/>
       <c r="G83" s="1"/>
       <c r="H83" s="9"/>
-      <c r="I83" s="61" t="s">
+      <c r="I83" s="67" t="s">
         <v>637</v>
       </c>
     </row>
@@ -22401,10 +24153,10 @@
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
-      <c r="F84" s="60"/>
+      <c r="F84" s="66"/>
       <c r="G84" s="1"/>
       <c r="H84" s="9"/>
-      <c r="I84" s="61" t="s">
+      <c r="I84" s="67" t="s">
         <v>638</v>
       </c>
     </row>
@@ -22415,10 +24167,10 @@
         <v>615</v>
       </c>
       <c r="E85" s="1"/>
-      <c r="F85" s="60"/>
+      <c r="F85" s="66"/>
       <c r="G85" s="1"/>
       <c r="H85" s="9"/>
-      <c r="I85" s="61" t="s">
+      <c r="I85" s="67" t="s">
         <v>639</v>
       </c>
     </row>
@@ -22429,10 +24181,10 @@
       <c r="E86" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="F86" s="60"/>
+      <c r="F86" s="66"/>
       <c r="G86" s="1"/>
       <c r="H86" s="9"/>
-      <c r="I86" s="61" t="s">
+      <c r="I86" s="67" t="s">
         <v>640</v>
       </c>
     </row>
@@ -22443,10 +24195,10 @@
       <c r="E87" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="F87" s="60"/>
+      <c r="F87" s="66"/>
       <c r="G87" s="1"/>
       <c r="H87" s="9"/>
-      <c r="I87" s="61" t="s">
+      <c r="I87" s="67" t="s">
         <v>641</v>
       </c>
     </row>
@@ -22457,10 +24209,10 @@
         <v>618</v>
       </c>
       <c r="E88" s="1"/>
-      <c r="F88" s="60"/>
+      <c r="F88" s="66"/>
       <c r="G88" s="1"/>
       <c r="H88" s="9"/>
-      <c r="I88" s="61" t="s">
+      <c r="I88" s="67" t="s">
         <v>642</v>
       </c>
     </row>
@@ -22471,10 +24223,10 @@
         <v>619</v>
       </c>
       <c r="E89" s="1"/>
-      <c r="F89" s="60"/>
+      <c r="F89" s="66"/>
       <c r="G89" s="1"/>
       <c r="H89" s="9"/>
-      <c r="I89" s="61" t="s">
+      <c r="I89" s="67" t="s">
         <v>643</v>
       </c>
     </row>
@@ -22485,10 +24237,10 @@
         <v>620</v>
       </c>
       <c r="E90" s="1"/>
-      <c r="F90" s="60"/>
+      <c r="F90" s="66"/>
       <c r="G90" s="1"/>
       <c r="H90" s="9"/>
-      <c r="I90" s="61" t="s">
+      <c r="I90" s="67" t="s">
         <v>644</v>
       </c>
     </row>
@@ -22499,10 +24251,10 @@
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="60"/>
+      <c r="F91" s="66"/>
       <c r="G91" s="1"/>
       <c r="H91" s="9"/>
-      <c r="I91" s="61" t="s">
+      <c r="I91" s="67" t="s">
         <v>645</v>
       </c>
     </row>
@@ -22513,36 +24265,46 @@
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
-      <c r="F92" s="60"/>
+      <c r="F92" s="66"/>
       <c r="G92" s="1"/>
       <c r="H92" s="9"/>
-      <c r="I92" s="61" t="s">
+      <c r="I92" s="67" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="93" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" spans="2:9" s="57" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F94" s="58"/>
-      <c r="H94" s="59"/>
+    <row r="94" spans="2:9" s="63" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F94" s="64"/>
+      <c r="H94" s="65"/>
     </row>
     <row r="95" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="96" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" spans="2:4" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B97" s="74" t="s">
+        <v>649</v>
+      </c>
+      <c r="C97" s="74"/>
+      <c r="D97" s="74"/>
+    </row>
+    <row r="98" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="113" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="114" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="115" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -25019,9 +26781,10 @@
     <row r="2586" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2587" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B7:I7"/>
     <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B97:D97"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25032,7 +26795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
@@ -25042,16 +26805,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="31" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="48" t="s">
         <v>483</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="45" t="s">
@@ -25062,870 +26825,870 @@
       <c r="D2" s="45"/>
       <c r="E2" s="45"/>
       <c r="F2" s="45"/>
-      <c r="G2" s="47" t="s">
+      <c r="G2" s="49" t="s">
         <v>485</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="49" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="35" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="55" t="s">
         <v>487</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="55" t="s">
         <v>488</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="55" t="s">
         <v>489</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="55" t="s">
         <v>490</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="58" t="s">
         <v>491</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="55" t="s">
         <v>492</v>
       </c>
-      <c r="G3" s="48" t="s">
+      <c r="G3" s="54" t="s">
         <v>493</v>
       </c>
-      <c r="H3" s="48" t="s">
+      <c r="H3" s="54" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="24" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="53"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="59"/>
       <c r="G4" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="H4" s="50" t="s">
+      <c r="H4" s="56" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="24" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="57" t="s">
         <v>496</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="53"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="59"/>
       <c r="G5" s="10"/>
-      <c r="H5" s="50" t="s">
+      <c r="H5" s="56" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="24" x14ac:dyDescent="0.25">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="68" t="s">
         <v>497</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="65" t="s">
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="71" t="s">
         <v>512</v>
       </c>
-      <c r="H6" s="66" t="s">
+      <c r="H6" s="72" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="64" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A7" s="62"/>
-      <c r="B7" s="62" t="s">
+    <row r="7" spans="1:8" s="70" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A7" s="68"/>
+      <c r="B7" s="68" t="s">
         <v>498</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="63"/>
-      <c r="G7" s="65" t="s">
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="69"/>
+      <c r="G7" s="71" t="s">
         <v>512</v>
       </c>
-      <c r="H7" s="66" t="s">
+      <c r="H7" s="72" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.25">
-      <c r="A8" s="51"/>
-      <c r="B8" s="51" t="s">
+      <c r="A8" s="57"/>
+      <c r="B8" s="57" t="s">
         <v>499</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="53"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="59"/>
       <c r="G8" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="H8" s="50" t="s">
+      <c r="H8" s="56" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="24" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51" t="s">
+      <c r="A9" s="57"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57" t="s">
         <v>500</v>
       </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="53"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="59"/>
       <c r="G9" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="H9" s="50" t="s">
+      <c r="H9" s="56" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="24" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51" t="s">
+      <c r="A10" s="57"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57" t="s">
         <v>501</v>
       </c>
-      <c r="D10" s="51"/>
-      <c r="E10" s="53"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="59"/>
       <c r="G10" s="10"/>
-      <c r="H10" s="50" t="s">
+      <c r="H10" s="56" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="24" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51" t="s">
+      <c r="A11" s="57"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57" t="s">
         <v>502</v>
       </c>
-      <c r="D11" s="51"/>
-      <c r="E11" s="53"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="59"/>
       <c r="G11" s="10"/>
-      <c r="H11" s="50" t="s">
+      <c r="H11" s="56" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="24" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51" t="s">
+      <c r="A12" s="57"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57" t="s">
         <v>504</v>
       </c>
-      <c r="E12" s="53"/>
+      <c r="E12" s="59"/>
       <c r="G12" s="10"/>
-      <c r="H12" s="50" t="s">
+      <c r="H12" s="56" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="24" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51" t="s">
+      <c r="A13" s="57"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57" t="s">
         <v>503</v>
       </c>
-      <c r="D13" s="51"/>
-      <c r="E13" s="53"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="59"/>
       <c r="G13" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="H13" s="50" t="s">
+      <c r="H13" s="56" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="24" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51" t="s">
+      <c r="A14" s="57"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57" t="s">
         <v>505</v>
       </c>
-      <c r="E14" s="53"/>
+      <c r="E14" s="59"/>
       <c r="G14" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="H14" s="50" t="s">
+      <c r="H14" s="56" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="24" x14ac:dyDescent="0.25">
-      <c r="A15" s="51"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51" t="s">
+      <c r="A15" s="57"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57" t="s">
         <v>506</v>
       </c>
-      <c r="E15" s="53"/>
+      <c r="E15" s="59"/>
       <c r="G15" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="H15" s="50" t="s">
+      <c r="H15" s="56" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="24" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51" t="s">
+      <c r="A16" s="57"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57" t="s">
         <v>507</v>
       </c>
-      <c r="E16" s="53"/>
+      <c r="E16" s="59"/>
       <c r="G16" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="H16" s="50" t="s">
+      <c r="H16" s="56" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="24" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="53" t="s">
+      <c r="A17" s="57"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="59" t="s">
         <v>508</v>
       </c>
       <c r="G17" s="10"/>
-      <c r="H17" s="50" t="s">
+      <c r="H17" s="56" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="24" x14ac:dyDescent="0.25">
-      <c r="A18" s="51"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="53" t="s">
+      <c r="A18" s="57"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="59" t="s">
         <v>509</v>
       </c>
       <c r="G18" s="10"/>
-      <c r="H18" s="50" t="s">
+      <c r="H18" s="56" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="24" x14ac:dyDescent="0.25">
-      <c r="A19" s="51"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="53" t="s">
+      <c r="A19" s="57"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="59" t="s">
         <v>510</v>
       </c>
       <c r="G19" s="10"/>
-      <c r="H19" s="50" t="s">
+      <c r="H19" s="56" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="24" x14ac:dyDescent="0.25">
-      <c r="A20" s="51"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="53" t="s">
+      <c r="A20" s="57"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="59" t="s">
         <v>511</v>
       </c>
       <c r="G20" s="10"/>
-      <c r="H20" s="50" t="s">
+      <c r="H20" s="56" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="35" x14ac:dyDescent="0.2">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="55" t="s">
         <v>487</v>
       </c>
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="55" t="s">
         <v>488</v>
       </c>
-      <c r="C21" s="49" t="s">
+      <c r="C21" s="55" t="s">
         <v>489</v>
       </c>
-      <c r="D21" s="49" t="s">
+      <c r="D21" s="55" t="s">
         <v>490</v>
       </c>
-      <c r="E21" s="52" t="s">
+      <c r="E21" s="58" t="s">
         <v>491</v>
       </c>
-      <c r="F21" s="49" t="s">
+      <c r="F21" s="55" t="s">
         <v>492</v>
       </c>
-      <c r="G21" s="48" t="s">
+      <c r="G21" s="54" t="s">
         <v>493</v>
       </c>
-      <c r="H21" s="48" t="s">
+      <c r="H21" s="54" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="23" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="55" t="s">
+      <c r="A22" s="57"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="61" t="s">
         <v>531</v>
       </c>
-      <c r="F22" s="51"/>
+      <c r="F22" s="57"/>
       <c r="G22" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="H22" s="56" t="s">
+      <c r="H22" s="62" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="23" x14ac:dyDescent="0.25">
-      <c r="A23" s="51"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51" t="s">
+      <c r="A23" s="57"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57" t="s">
         <v>533</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="H23" s="56" t="s">
+      <c r="H23" s="62" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="23" x14ac:dyDescent="0.25">
-      <c r="A24" s="51"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51" t="s">
+      <c r="A24" s="57"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57" t="s">
         <v>532</v>
       </c>
-      <c r="F24" s="51"/>
+      <c r="F24" s="57"/>
       <c r="G24" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="H24" s="56" t="s">
+      <c r="H24" s="62" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="23" x14ac:dyDescent="0.25">
-      <c r="A25" s="51"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51" t="s">
+      <c r="A25" s="57"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57" t="s">
         <v>534</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="H25" s="56" t="s">
+      <c r="H25" s="62" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="23" x14ac:dyDescent="0.25">
-      <c r="A26" s="51"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51" t="s">
+      <c r="A26" s="57"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57" t="s">
         <v>535</v>
       </c>
       <c r="G26" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="H26" s="56" t="s">
+      <c r="H26" s="62" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="23" x14ac:dyDescent="0.25">
-      <c r="A27" s="51"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51" t="s">
+      <c r="A27" s="57"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57" t="s">
         <v>536</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>570</v>
       </c>
-      <c r="H27" s="56" t="s">
+      <c r="H27" s="62" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="23" x14ac:dyDescent="0.25">
-      <c r="A28" s="51"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51" t="s">
+      <c r="A28" s="57"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57" t="s">
         <v>537</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="H28" s="56" t="s">
+      <c r="H28" s="62" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="23" x14ac:dyDescent="0.25">
-      <c r="A29" s="51"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51" t="s">
+      <c r="A29" s="57"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57" t="s">
         <v>538</v>
       </c>
       <c r="G29" s="10"/>
-      <c r="H29" s="56" t="s">
+      <c r="H29" s="62" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="23" x14ac:dyDescent="0.25">
-      <c r="A30" s="51"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51" t="s">
+      <c r="A30" s="57"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57" t="s">
         <v>539</v>
       </c>
       <c r="G30" s="10"/>
-      <c r="H30" s="56" t="s">
+      <c r="H30" s="62" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="23" x14ac:dyDescent="0.25">
-      <c r="A31" s="51"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51" t="s">
+      <c r="A31" s="57"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57" t="s">
         <v>540</v>
       </c>
       <c r="G31" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="H31" s="56" t="s">
+      <c r="H31" s="62" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="23" x14ac:dyDescent="0.25">
-      <c r="A32" s="51"/>
-      <c r="B32" s="51"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51" t="s">
+      <c r="A32" s="57"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57" t="s">
         <v>541</v>
       </c>
       <c r="G32" s="10"/>
-      <c r="H32" s="56" t="s">
+      <c r="H32" s="62" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="23" x14ac:dyDescent="0.25">
-      <c r="A33" s="51"/>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51" t="s">
+      <c r="A33" s="57"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57" t="s">
         <v>542</v>
       </c>
       <c r="G33" s="10"/>
-      <c r="H33" s="56" t="s">
+      <c r="H33" s="62" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="23" x14ac:dyDescent="0.25">
-      <c r="A34" s="51"/>
-      <c r="B34" s="51"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51" t="s">
+      <c r="A34" s="57"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57" t="s">
         <v>543</v>
       </c>
       <c r="G34" s="10"/>
-      <c r="H34" s="56" t="s">
+      <c r="H34" s="62" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="23" x14ac:dyDescent="0.25">
-      <c r="A35" s="51"/>
-      <c r="B35" s="51"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51" t="s">
+      <c r="A35" s="57"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57" t="s">
         <v>544</v>
       </c>
       <c r="G35" s="10"/>
-      <c r="H35" s="56" t="s">
+      <c r="H35" s="62" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="23" x14ac:dyDescent="0.25">
-      <c r="A36" s="51"/>
-      <c r="B36" s="51"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51" t="s">
+      <c r="A36" s="57"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57" t="s">
         <v>545</v>
       </c>
       <c r="G36" s="10"/>
-      <c r="H36" s="56" t="s">
+      <c r="H36" s="62" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="23" x14ac:dyDescent="0.25">
-      <c r="A37" s="51"/>
-      <c r="B37" s="51"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51" t="s">
+      <c r="A37" s="57"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57" t="s">
         <v>546</v>
       </c>
       <c r="G37" s="10"/>
-      <c r="H37" s="56" t="s">
+      <c r="H37" s="62" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="23" x14ac:dyDescent="0.25">
-      <c r="A38" s="51"/>
-      <c r="B38" s="51"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51" t="s">
+      <c r="A38" s="57"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57" t="s">
         <v>547</v>
       </c>
       <c r="G38" s="10"/>
-      <c r="H38" s="56" t="s">
+      <c r="H38" s="62" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="23" x14ac:dyDescent="0.25">
-      <c r="A39" s="51"/>
-      <c r="B39" s="51"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51" t="s">
+      <c r="A39" s="57"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57" t="s">
         <v>548</v>
       </c>
       <c r="G39" s="10"/>
-      <c r="H39" s="56" t="s">
+      <c r="H39" s="62" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="23" x14ac:dyDescent="0.25">
-      <c r="A40" s="51"/>
-      <c r="B40" s="51"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="51" t="s">
+      <c r="A40" s="57"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="57" t="s">
         <v>549</v>
       </c>
       <c r="G40" s="10"/>
-      <c r="H40" s="56" t="s">
+      <c r="H40" s="62" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="23" x14ac:dyDescent="0.25">
-      <c r="A41" s="51"/>
-      <c r="B41" s="51" t="s">
+      <c r="A41" s="57"/>
+      <c r="B41" s="57" t="s">
         <v>550</v>
       </c>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="51"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="57"/>
       <c r="G41" s="10"/>
-      <c r="H41" s="56" t="s">
+      <c r="H41" s="62" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="23" x14ac:dyDescent="0.25">
-      <c r="A42" s="51"/>
-      <c r="B42" s="51"/>
-      <c r="C42" s="51" t="s">
+      <c r="A42" s="57"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="57" t="s">
         <v>551</v>
       </c>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="51"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="57"/>
       <c r="G42" s="10"/>
-      <c r="H42" s="56" t="s">
+      <c r="H42" s="62" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="23" x14ac:dyDescent="0.25">
-      <c r="A43" s="51"/>
-      <c r="B43" s="51"/>
-      <c r="C43" s="51" t="s">
+      <c r="A43" s="57"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="57" t="s">
         <v>552</v>
       </c>
-      <c r="D43" s="51"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="51"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="57"/>
       <c r="G43" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="H43" s="56" t="s">
+      <c r="H43" s="62" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="23" x14ac:dyDescent="0.25">
-      <c r="A44" s="51"/>
-      <c r="B44" s="51" t="s">
+      <c r="A44" s="57"/>
+      <c r="B44" s="57" t="s">
         <v>553</v>
       </c>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57"/>
       <c r="G44" s="10"/>
-      <c r="H44" s="56" t="s">
+      <c r="H44" s="62" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="23" x14ac:dyDescent="0.25">
-      <c r="A45" s="51" t="s">
+      <c r="A45" s="57" t="s">
         <v>554</v>
       </c>
-      <c r="B45" s="51"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="51"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="57"/>
       <c r="G45" s="10"/>
-      <c r="H45" s="56" t="s">
+      <c r="H45" s="62" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="23" x14ac:dyDescent="0.25">
-      <c r="A46" s="51"/>
-      <c r="B46" s="51" t="s">
+      <c r="A46" s="57"/>
+      <c r="B46" s="57" t="s">
         <v>555</v>
       </c>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="51"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="57"/>
       <c r="G46" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="H46" s="56" t="s">
+      <c r="H46" s="62" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="23" x14ac:dyDescent="0.25">
-      <c r="A47" s="51"/>
-      <c r="B47" s="51" t="s">
+      <c r="A47" s="57"/>
+      <c r="B47" s="57" t="s">
         <v>556</v>
       </c>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="51"/>
-      <c r="F47" s="51"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="57"/>
       <c r="G47" s="10"/>
-      <c r="H47" s="56" t="s">
+      <c r="H47" s="62" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="23" x14ac:dyDescent="0.25">
-      <c r="A48" s="51"/>
-      <c r="B48" s="51"/>
-      <c r="C48" s="51" t="s">
+      <c r="A48" s="57"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="57" t="s">
         <v>557</v>
       </c>
-      <c r="D48" s="51"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="51"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="57"/>
       <c r="G48" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="H48" s="56" t="s">
+      <c r="H48" s="62" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="23" x14ac:dyDescent="0.25">
-      <c r="A49" s="51"/>
-      <c r="B49" s="51"/>
-      <c r="C49" s="51" t="s">
+      <c r="A49" s="57"/>
+      <c r="B49" s="57"/>
+      <c r="C49" s="57" t="s">
         <v>558</v>
       </c>
-      <c r="D49" s="51"/>
-      <c r="E49" s="51"/>
-      <c r="F49" s="51"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="57"/>
       <c r="G49" s="10"/>
-      <c r="H49" s="56" t="s">
+      <c r="H49" s="62" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="23" x14ac:dyDescent="0.25">
-      <c r="A50" s="51"/>
-      <c r="B50" s="51"/>
-      <c r="C50" s="51" t="s">
+      <c r="A50" s="57"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="57" t="s">
         <v>546</v>
       </c>
-      <c r="D50" s="51"/>
-      <c r="E50" s="51"/>
-      <c r="F50" s="51"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="57"/>
       <c r="G50" s="10"/>
-      <c r="H50" s="56" t="s">
+      <c r="H50" s="62" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="23" x14ac:dyDescent="0.25">
-      <c r="A51" s="51"/>
-      <c r="B51" s="51"/>
-      <c r="C51" s="51" t="s">
+      <c r="A51" s="57"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="57" t="s">
         <v>547</v>
       </c>
-      <c r="D51" s="51"/>
-      <c r="E51" s="51"/>
-      <c r="F51" s="51"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="57"/>
       <c r="G51" s="10"/>
-      <c r="H51" s="56" t="s">
+      <c r="H51" s="62" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="23" x14ac:dyDescent="0.25">
-      <c r="A52" s="51"/>
-      <c r="B52" s="51"/>
-      <c r="C52" s="51" t="s">
+      <c r="A52" s="57"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="57" t="s">
         <v>549</v>
       </c>
-      <c r="D52" s="51"/>
-      <c r="E52" s="51"/>
-      <c r="F52" s="51"/>
+      <c r="D52" s="57"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="57"/>
       <c r="G52" s="10"/>
-      <c r="H52" s="56" t="s">
+      <c r="H52" s="62" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="23" x14ac:dyDescent="0.25">
-      <c r="A53" s="51" t="s">
+      <c r="A53" s="57" t="s">
         <v>559</v>
       </c>
-      <c r="B53" s="51"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="51"/>
-      <c r="E53" s="51"/>
-      <c r="F53" s="51"/>
+      <c r="B53" s="57"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="57"/>
+      <c r="F53" s="57"/>
       <c r="G53" s="10"/>
-      <c r="H53" s="56" t="s">
+      <c r="H53" s="62" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="23" x14ac:dyDescent="0.25">
-      <c r="A54" s="51"/>
-      <c r="B54" s="51" t="s">
+      <c r="A54" s="57"/>
+      <c r="B54" s="57" t="s">
         <v>560</v>
       </c>
-      <c r="C54" s="51"/>
-      <c r="D54" s="51"/>
-      <c r="E54" s="51"/>
-      <c r="F54" s="51"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="57"/>
+      <c r="E54" s="57"/>
+      <c r="F54" s="57"/>
       <c r="G54" s="10"/>
-      <c r="H54" s="56" t="s">
+      <c r="H54" s="62" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="23" x14ac:dyDescent="0.25">
-      <c r="A55" s="51"/>
-      <c r="B55" s="51" t="s">
+      <c r="A55" s="57"/>
+      <c r="B55" s="57" t="s">
         <v>561</v>
       </c>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51"/>
-      <c r="E55" s="51"/>
-      <c r="F55" s="51"/>
+      <c r="C55" s="57"/>
+      <c r="D55" s="57"/>
+      <c r="E55" s="57"/>
+      <c r="F55" s="57"/>
       <c r="G55" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="H55" s="56" t="s">
+      <c r="H55" s="62" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="23" x14ac:dyDescent="0.25">
-      <c r="A56" s="62" t="s">
+      <c r="A56" s="68" t="s">
         <v>562</v>
       </c>
-      <c r="B56" s="62"/>
-      <c r="C56" s="62"/>
-      <c r="D56" s="62"/>
-      <c r="E56" s="62"/>
-      <c r="F56" s="62"/>
-      <c r="G56" s="65"/>
-      <c r="H56" s="67" t="s">
+      <c r="B56" s="68"/>
+      <c r="C56" s="68"/>
+      <c r="D56" s="68"/>
+      <c r="E56" s="68"/>
+      <c r="F56" s="68"/>
+      <c r="G56" s="71"/>
+      <c r="H56" s="73" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="23" x14ac:dyDescent="0.25">
-      <c r="A57" s="51" t="s">
+      <c r="A57" s="57" t="s">
         <v>563</v>
       </c>
-      <c r="B57" s="51"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
-      <c r="E57" s="51"/>
-      <c r="F57" s="51"/>
+      <c r="B57" s="57"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="57"/>
+      <c r="E57" s="57"/>
+      <c r="F57" s="57"/>
       <c r="G57" s="10"/>
-      <c r="H57" s="56" t="s">
+      <c r="H57" s="62" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="23" x14ac:dyDescent="0.25">
-      <c r="A58" s="51" t="s">
+      <c r="A58" s="57" t="s">
         <v>564</v>
       </c>
-      <c r="B58" s="51"/>
-      <c r="C58" s="51"/>
-      <c r="D58" s="51"/>
-      <c r="E58" s="51"/>
-      <c r="F58" s="51"/>
+      <c r="B58" s="57"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="57"/>
+      <c r="E58" s="57"/>
+      <c r="F58" s="57"/>
       <c r="G58" s="10"/>
-      <c r="H58" s="56" t="s">
+      <c r="H58" s="62" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="35" x14ac:dyDescent="0.2">
-      <c r="A59" s="49" t="s">
+      <c r="A59" s="55" t="s">
         <v>487</v>
       </c>
-      <c r="B59" s="49" t="s">
+      <c r="B59" s="55" t="s">
         <v>488</v>
       </c>
-      <c r="C59" s="49" t="s">
+      <c r="C59" s="55" t="s">
         <v>489</v>
       </c>
-      <c r="D59" s="49" t="s">
+      <c r="D59" s="55" t="s">
         <v>490</v>
       </c>
-      <c r="E59" s="52" t="s">
+      <c r="E59" s="58" t="s">
         <v>491</v>
       </c>
-      <c r="F59" s="49" t="s">
+      <c r="F59" s="55" t="s">
         <v>492</v>
       </c>
-      <c r="G59" s="48" t="s">
+      <c r="G59" s="54" t="s">
         <v>493</v>
       </c>
-      <c r="H59" s="48" t="s">
+      <c r="H59" s="54" t="s">
         <v>494</v>
       </c>
     </row>
@@ -25936,10 +27699,10 @@
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
-      <c r="E60" s="60"/>
+      <c r="E60" s="66"/>
       <c r="F60" s="1"/>
       <c r="G60" s="9"/>
-      <c r="H60" s="61" t="s">
+      <c r="H60" s="67" t="s">
         <v>623</v>
       </c>
     </row>
@@ -25950,10 +27713,10 @@
         <v>601</v>
       </c>
       <c r="D61" s="1"/>
-      <c r="E61" s="60"/>
+      <c r="E61" s="66"/>
       <c r="F61" s="1"/>
       <c r="G61" s="9"/>
-      <c r="H61" s="61" t="s">
+      <c r="H61" s="67" t="s">
         <v>624</v>
       </c>
     </row>
@@ -25964,10 +27727,10 @@
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
-      <c r="E62" s="60"/>
+      <c r="E62" s="66"/>
       <c r="F62" s="1"/>
       <c r="G62" s="9"/>
-      <c r="H62" s="61" t="s">
+      <c r="H62" s="67" t="s">
         <v>625</v>
       </c>
     </row>
@@ -25978,12 +27741,12 @@
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
-      <c r="E63" s="60"/>
+      <c r="E63" s="66"/>
       <c r="F63" s="1"/>
       <c r="G63" s="9" t="s">
         <v>513</v>
       </c>
-      <c r="H63" s="61" t="s">
+      <c r="H63" s="67" t="s">
         <v>626</v>
       </c>
     </row>
@@ -25994,10 +27757,10 @@
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
-      <c r="E64" s="60"/>
+      <c r="E64" s="66"/>
       <c r="F64" s="1"/>
       <c r="G64" s="9"/>
-      <c r="H64" s="61" t="s">
+      <c r="H64" s="67" t="s">
         <v>565</v>
       </c>
     </row>
@@ -26008,10 +27771,10 @@
         <v>533</v>
       </c>
       <c r="D65" s="1"/>
-      <c r="E65" s="60"/>
+      <c r="E65" s="66"/>
       <c r="F65" s="1"/>
       <c r="G65" s="9"/>
-      <c r="H65" s="61" t="s">
+      <c r="H65" s="67" t="s">
         <v>627</v>
       </c>
     </row>
@@ -26022,10 +27785,10 @@
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
-      <c r="E66" s="60"/>
+      <c r="E66" s="66"/>
       <c r="F66" s="1"/>
       <c r="G66" s="9"/>
-      <c r="H66" s="61" t="s">
+      <c r="H66" s="67" t="s">
         <v>647</v>
       </c>
     </row>
@@ -26036,10 +27799,10 @@
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
-      <c r="E67" s="60"/>
+      <c r="E67" s="66"/>
       <c r="F67" s="1"/>
       <c r="G67" s="9"/>
-      <c r="H67" s="61" t="s">
+      <c r="H67" s="67" t="s">
         <v>628</v>
       </c>
     </row>
@@ -26050,10 +27813,10 @@
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
-      <c r="E68" s="60"/>
+      <c r="E68" s="66"/>
       <c r="F68" s="1"/>
       <c r="G68" s="9"/>
-      <c r="H68" s="61" t="s">
+      <c r="H68" s="67" t="s">
         <v>629</v>
       </c>
     </row>
@@ -26064,10 +27827,10 @@
         <v>605</v>
       </c>
       <c r="D69" s="1"/>
-      <c r="E69" s="60"/>
+      <c r="E69" s="66"/>
       <c r="F69" s="1"/>
       <c r="G69" s="9"/>
-      <c r="H69" s="61" t="s">
+      <c r="H69" s="67" t="s">
         <v>630</v>
       </c>
     </row>
@@ -26078,10 +27841,10 @@
       <c r="D70" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="E70" s="60"/>
+      <c r="E70" s="66"/>
       <c r="F70" s="1"/>
       <c r="G70" s="9"/>
-      <c r="H70" s="61" t="s">
+      <c r="H70" s="67" t="s">
         <v>631</v>
       </c>
     </row>
@@ -26092,10 +27855,10 @@
       <c r="D71" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="E71" s="60"/>
+      <c r="E71" s="66"/>
       <c r="F71" s="1"/>
       <c r="G71" s="9"/>
-      <c r="H71" s="61" t="s">
+      <c r="H71" s="67" t="s">
         <v>648</v>
       </c>
     </row>
@@ -26106,10 +27869,10 @@
       <c r="D72" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="E72" s="60"/>
+      <c r="E72" s="66"/>
       <c r="F72" s="1"/>
       <c r="G72" s="9"/>
-      <c r="H72" s="61" t="s">
+      <c r="H72" s="67" t="s">
         <v>632</v>
       </c>
     </row>
@@ -26120,10 +27883,10 @@
       <c r="D73" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="E73" s="60"/>
+      <c r="E73" s="66"/>
       <c r="F73" s="1"/>
       <c r="G73" s="9"/>
-      <c r="H73" s="61" t="s">
+      <c r="H73" s="67" t="s">
         <v>633</v>
       </c>
     </row>
@@ -26134,10 +27897,10 @@
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
-      <c r="E74" s="60"/>
+      <c r="E74" s="66"/>
       <c r="F74" s="1"/>
       <c r="G74" s="9"/>
-      <c r="H74" s="61" t="s">
+      <c r="H74" s="67" t="s">
         <v>634</v>
       </c>
     </row>
@@ -26148,10 +27911,10 @@
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
-      <c r="E75" s="60"/>
+      <c r="E75" s="66"/>
       <c r="F75" s="1"/>
       <c r="G75" s="9"/>
-      <c r="H75" s="61" t="s">
+      <c r="H75" s="67" t="s">
         <v>635</v>
       </c>
     </row>
@@ -26162,10 +27925,10 @@
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
-      <c r="E76" s="60"/>
+      <c r="E76" s="66"/>
       <c r="F76" s="1"/>
       <c r="G76" s="9"/>
-      <c r="H76" s="61" t="s">
+      <c r="H76" s="67" t="s">
         <v>636</v>
       </c>
     </row>
@@ -26176,10 +27939,10 @@
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
-      <c r="E77" s="60"/>
+      <c r="E77" s="66"/>
       <c r="F77" s="1"/>
       <c r="G77" s="9"/>
-      <c r="H77" s="61" t="s">
+      <c r="H77" s="67" t="s">
         <v>637</v>
       </c>
     </row>
@@ -26190,10 +27953,10 @@
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
-      <c r="E78" s="60"/>
+      <c r="E78" s="66"/>
       <c r="F78" s="1"/>
       <c r="G78" s="9"/>
-      <c r="H78" s="61" t="s">
+      <c r="H78" s="67" t="s">
         <v>638</v>
       </c>
     </row>
@@ -26204,10 +27967,10 @@
         <v>615</v>
       </c>
       <c r="D79" s="1"/>
-      <c r="E79" s="60"/>
+      <c r="E79" s="66"/>
       <c r="F79" s="1"/>
       <c r="G79" s="9"/>
-      <c r="H79" s="61" t="s">
+      <c r="H79" s="67" t="s">
         <v>639</v>
       </c>
     </row>
@@ -26218,10 +27981,10 @@
       <c r="D80" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="E80" s="60"/>
+      <c r="E80" s="66"/>
       <c r="F80" s="1"/>
       <c r="G80" s="9"/>
-      <c r="H80" s="61" t="s">
+      <c r="H80" s="67" t="s">
         <v>640</v>
       </c>
     </row>
@@ -26232,10 +27995,10 @@
       <c r="D81" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="E81" s="60"/>
+      <c r="E81" s="66"/>
       <c r="F81" s="1"/>
       <c r="G81" s="9"/>
-      <c r="H81" s="61" t="s">
+      <c r="H81" s="67" t="s">
         <v>641</v>
       </c>
     </row>
@@ -26246,10 +28009,10 @@
         <v>618</v>
       </c>
       <c r="D82" s="1"/>
-      <c r="E82" s="60"/>
+      <c r="E82" s="66"/>
       <c r="F82" s="1"/>
       <c r="G82" s="9"/>
-      <c r="H82" s="61" t="s">
+      <c r="H82" s="67" t="s">
         <v>642</v>
       </c>
     </row>
@@ -26260,10 +28023,10 @@
         <v>619</v>
       </c>
       <c r="D83" s="1"/>
-      <c r="E83" s="60"/>
+      <c r="E83" s="66"/>
       <c r="F83" s="1"/>
       <c r="G83" s="9"/>
-      <c r="H83" s="61" t="s">
+      <c r="H83" s="67" t="s">
         <v>643</v>
       </c>
     </row>
@@ -26274,10 +28037,10 @@
         <v>620</v>
       </c>
       <c r="D84" s="1"/>
-      <c r="E84" s="60"/>
+      <c r="E84" s="66"/>
       <c r="F84" s="1"/>
       <c r="G84" s="9"/>
-      <c r="H84" s="61" t="s">
+      <c r="H84" s="67" t="s">
         <v>644</v>
       </c>
     </row>
@@ -26288,10 +28051,10 @@
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
-      <c r="E85" s="60"/>
+      <c r="E85" s="66"/>
       <c r="F85" s="1"/>
       <c r="G85" s="9"/>
-      <c r="H85" s="61" t="s">
+      <c r="H85" s="67" t="s">
         <v>645</v>
       </c>
     </row>
@@ -26302,10 +28065,10 @@
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
-      <c r="E86" s="60"/>
+      <c r="E86" s="66"/>
       <c r="F86" s="1"/>
       <c r="G86" s="9"/>
-      <c r="H86" s="61" t="s">
+      <c r="H86" s="67" t="s">
         <v>646</v>
       </c>
     </row>
@@ -27339,6 +29102,150 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="4" max="4" width="51.1640625" customWidth="1"/>
+    <col min="5" max="14" width="18.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:4" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="2:4" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="2:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="48" t="s">
+        <v>694</v>
+      </c>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+    </row>
+    <row r="5" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="75" t="s">
+        <v>695</v>
+      </c>
+      <c r="D5" s="75" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="57" t="s">
+        <v>696</v>
+      </c>
+      <c r="C6" s="76">
+        <v>4</v>
+      </c>
+      <c r="D6" s="57" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="57" t="s">
+        <v>657</v>
+      </c>
+      <c r="C7" s="76">
+        <v>4</v>
+      </c>
+      <c r="D7" s="57" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="57" t="s">
+        <v>658</v>
+      </c>
+      <c r="C8" s="76" t="s">
+        <v>672</v>
+      </c>
+      <c r="D8" s="57" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="57" t="s">
+        <v>659</v>
+      </c>
+      <c r="C9" s="76" t="s">
+        <v>673</v>
+      </c>
+      <c r="D9" s="68" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="57" t="s">
+        <v>697</v>
+      </c>
+      <c r="C10" s="76" t="s">
+        <v>674</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="57" t="s">
+        <v>698</v>
+      </c>
+      <c r="C11" s="76" t="s">
+        <v>699</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B4:D4"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N200"/>
   <sheetViews>
@@ -36169,4 +38076,1388 @@
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:E40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="38" style="78" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" customWidth="1"/>
+    <col min="5" max="5" width="69.83203125" customWidth="1"/>
+    <col min="6" max="15" width="18.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1" s="77"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+    </row>
+    <row r="2" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2" s="77"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+    </row>
+    <row r="3" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="77"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+    </row>
+    <row r="4" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="77"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+    </row>
+    <row r="5" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="77"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+    </row>
+    <row r="6" spans="3:5" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="43" t="s">
+        <v>705</v>
+      </c>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+    </row>
+    <row r="7" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="79" t="s">
+        <v>706</v>
+      </c>
+      <c r="D8" s="80" t="s">
+        <v>710</v>
+      </c>
+      <c r="E8" s="77" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="81" t="s">
+        <v>707</v>
+      </c>
+      <c r="D9" s="80" t="s">
+        <v>710</v>
+      </c>
+      <c r="E9" s="77" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="81" t="s">
+        <v>708</v>
+      </c>
+      <c r="D10" s="80" t="s">
+        <v>710</v>
+      </c>
+      <c r="E10" s="77" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="81" t="s">
+        <v>709</v>
+      </c>
+      <c r="D11" s="80" t="s">
+        <v>710</v>
+      </c>
+      <c r="E11" s="77" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="81" t="s">
+        <v>711</v>
+      </c>
+      <c r="D12" s="80" t="s">
+        <v>710</v>
+      </c>
+      <c r="E12" s="77" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="77"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+    </row>
+    <row r="14" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="77"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+    </row>
+    <row r="15" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="77"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+    </row>
+    <row r="16" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="77"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+    </row>
+    <row r="17" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="77"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+    </row>
+    <row r="18" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="77"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+    </row>
+    <row r="19" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="77"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+    </row>
+    <row r="20" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="77"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+    </row>
+    <row r="21" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="77"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+    </row>
+    <row r="22" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="77"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+    </row>
+    <row r="23" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C23" s="77"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+    </row>
+    <row r="24" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="77"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+    </row>
+    <row r="25" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C25" s="77"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+    </row>
+    <row r="26" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="77"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+    </row>
+    <row r="27" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C27" s="77"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+    </row>
+    <row r="28" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C6:E6"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D528"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="2" max="2" width="35" style="75" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" style="56" customWidth="1"/>
+    <col min="4" max="4" width="75.33203125" customWidth="1"/>
+    <col min="5" max="13" width="18.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:4" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="47" t="s">
+        <v>717</v>
+      </c>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+    </row>
+    <row r="4" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="46" t="s">
+        <v>718</v>
+      </c>
+      <c r="D5" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="46"/>
+      <c r="C6" s="56" t="s">
+        <v>719</v>
+      </c>
+      <c r="D6" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="46"/>
+      <c r="C7" s="56" t="s">
+        <v>720</v>
+      </c>
+      <c r="D7" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="46"/>
+      <c r="C8" s="56" t="s">
+        <v>721</v>
+      </c>
+      <c r="D8" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="46"/>
+      <c r="C9" s="56" t="s">
+        <v>722</v>
+      </c>
+      <c r="D9" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="46"/>
+      <c r="C10" s="56" t="s">
+        <v>723</v>
+      </c>
+      <c r="D10" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="46"/>
+      <c r="C11" s="56" t="s">
+        <v>724</v>
+      </c>
+      <c r="D11" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="46"/>
+      <c r="C12" s="56" t="s">
+        <v>725</v>
+      </c>
+      <c r="D12" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="46"/>
+      <c r="C13" s="56" t="s">
+        <v>726</v>
+      </c>
+      <c r="D13" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="46"/>
+      <c r="C14" s="56" t="s">
+        <v>727</v>
+      </c>
+      <c r="D14" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="46"/>
+      <c r="C15" s="56" t="s">
+        <v>728</v>
+      </c>
+      <c r="D15" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="46"/>
+      <c r="C16" s="56" t="s">
+        <v>729</v>
+      </c>
+      <c r="D16" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="46"/>
+      <c r="C17" s="56" t="s">
+        <v>730</v>
+      </c>
+      <c r="D17" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="46"/>
+      <c r="C18" s="56" t="s">
+        <v>731</v>
+      </c>
+      <c r="D18" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="46"/>
+      <c r="C19" s="56" t="s">
+        <v>732</v>
+      </c>
+      <c r="D19" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="46"/>
+      <c r="C20" s="56" t="s">
+        <v>733</v>
+      </c>
+      <c r="D20" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="46"/>
+      <c r="C21" s="56" t="s">
+        <v>734</v>
+      </c>
+      <c r="D21" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="75" t="s">
+        <v>735</v>
+      </c>
+      <c r="C22" s="56" t="s">
+        <v>736</v>
+      </c>
+      <c r="D22" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="46" t="s">
+        <v>737</v>
+      </c>
+      <c r="D23" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="46"/>
+      <c r="C24" s="56" t="s">
+        <v>738</v>
+      </c>
+      <c r="D24" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="46"/>
+      <c r="C25" s="56" t="s">
+        <v>739</v>
+      </c>
+      <c r="D25" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="46"/>
+      <c r="C26" s="56" t="s">
+        <v>740</v>
+      </c>
+      <c r="D26" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="46"/>
+      <c r="C27" s="56" t="s">
+        <v>741</v>
+      </c>
+      <c r="D27" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="46"/>
+      <c r="C28" s="56" t="s">
+        <v>742</v>
+      </c>
+      <c r="D28" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="75" t="s">
+        <v>743</v>
+      </c>
+      <c r="C29" s="56" t="s">
+        <v>710</v>
+      </c>
+      <c r="D29" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="75" t="s">
+        <v>744</v>
+      </c>
+      <c r="C30" s="56" t="s">
+        <v>772</v>
+      </c>
+      <c r="D30" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="75" t="s">
+        <v>745</v>
+      </c>
+      <c r="C31" s="56" t="s">
+        <v>772</v>
+      </c>
+      <c r="D31" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="75" t="s">
+        <v>746</v>
+      </c>
+      <c r="C32" s="56" t="s">
+        <v>736</v>
+      </c>
+      <c r="D32" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="75" t="s">
+        <v>747</v>
+      </c>
+      <c r="C33" s="56" t="s">
+        <v>736</v>
+      </c>
+      <c r="D33" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="75" t="s">
+        <v>778</v>
+      </c>
+      <c r="C34" s="56" t="s">
+        <v>736</v>
+      </c>
+      <c r="D34" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="75" t="s">
+        <v>779</v>
+      </c>
+      <c r="C35" s="56" t="s">
+        <v>736</v>
+      </c>
+      <c r="D35" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="75" t="s">
+        <v>780</v>
+      </c>
+      <c r="C36" s="56" t="s">
+        <v>736</v>
+      </c>
+      <c r="D36" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="75" t="s">
+        <v>781</v>
+      </c>
+      <c r="C37" s="56" t="s">
+        <v>790</v>
+      </c>
+      <c r="D37" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="75" t="s">
+        <v>782</v>
+      </c>
+      <c r="C38" s="56" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="75" t="s">
+        <v>783</v>
+      </c>
+      <c r="C39" s="56" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="75" t="s">
+        <v>784</v>
+      </c>
+      <c r="C40" s="56" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="75" t="s">
+        <v>785</v>
+      </c>
+      <c r="C41" s="56" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="75" t="s">
+        <v>786</v>
+      </c>
+      <c r="C42" s="56" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="75" t="s">
+        <v>787</v>
+      </c>
+      <c r="C43" s="56" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="75" t="s">
+        <v>788</v>
+      </c>
+      <c r="C44" s="56" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B5:B21"/>
+    <mergeCell ref="B23:B28"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="51" customWidth="1"/>
+    <col min="4" max="4" width="86.83203125" customWidth="1"/>
+    <col min="5" max="11" width="15.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="47" t="s">
+        <v>649</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+    </row>
+    <row r="3" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>650</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>656</v>
+      </c>
+      <c r="C4" s="51">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>657</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>671</v>
+      </c>
+      <c r="D5" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>658</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>672</v>
+      </c>
+      <c r="D6" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>659</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>673</v>
+      </c>
+      <c r="D7" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>660</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>671</v>
+      </c>
+      <c r="D8" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>661</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>671</v>
+      </c>
+      <c r="D9" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>651</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>670</v>
+      </c>
+      <c r="D10" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>652</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>670</v>
+      </c>
+      <c r="D11" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>662</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>670</v>
+      </c>
+      <c r="D12" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>669</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>674</v>
+      </c>
+      <c r="D13" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>663</v>
+      </c>
+      <c r="C14" s="51" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>664</v>
+      </c>
+      <c r="C15" s="51" t="s">
+        <v>676</v>
+      </c>
+      <c r="D15" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>665</v>
+      </c>
+      <c r="C16" s="51" t="s">
+        <v>671</v>
+      </c>
+      <c r="D16" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>666</v>
+      </c>
+      <c r="C17" s="51" t="s">
+        <v>671</v>
+      </c>
+      <c r="D17" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>653</v>
+      </c>
+      <c r="C18" s="51" t="s">
+        <v>670</v>
+      </c>
+      <c r="D18" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>654</v>
+      </c>
+      <c r="C19" s="51" t="s">
+        <v>670</v>
+      </c>
+      <c r="D19" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>655</v>
+      </c>
+      <c r="C20" s="51" t="s">
+        <v>670</v>
+      </c>
+      <c r="D20" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>667</v>
+      </c>
+      <c r="C21" s="51" t="s">
+        <v>670</v>
+      </c>
+      <c r="D21" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>668</v>
+      </c>
+      <c r="C22" s="51" t="s">
+        <v>670</v>
+      </c>
+      <c r="D22" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:D2"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/音视频/ffmpeg/ffmpeg表.xlsx
+++ b/音视频/ffmpeg/ffmpeg表.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2146" uniqueCount="796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2153" uniqueCount="803">
   <si>
     <t>参数</t>
     <rPh sb="0" eb="1">
@@ -7165,6 +7165,88 @@
     <t>写major brand</t>
     <rPh sb="0" eb="1">
       <t>xie</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用edit list</t>
+    <rPh sb="0" eb="1">
+      <t>shi'yong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一个分片编号</t>
+    <rPh sb="0" eb="1">
+      <t>xia'yi'ge</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fen'p</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bian'hao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gama 容器的gama值</t>
+    <rPh sb="5" eb="6">
+      <t>rong'q</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交错分片样本</t>
+    <rPh sb="0" eb="1">
+      <t>jiao'cuo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fen'p</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yang'b</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置加密的方案</t>
+    <rPh sb="0" eb="1">
+      <t>pei'zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jia'mi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fang'an</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>秘钥</t>
+    <rPh sb="0" eb="1">
+      <t>mi'yao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>秘钥标识符</t>
+    <rPh sb="0" eb="1">
+      <t>mi'yao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>biao'shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fu</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -7519,8 +7601,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -7714,7 +7798,7 @@
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="25">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -7727,6 +7811,7 @@
     <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -7738,6 +7823,7 @@
     <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -38294,8 +38380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D528"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.25"/>
@@ -38331,7 +38417,7 @@
       <c r="B5" s="46" t="s">
         <v>718</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="56" t="s">
         <v>748</v>
       </c>
     </row>
@@ -38340,7 +38426,7 @@
       <c r="C6" s="56" t="s">
         <v>719</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="56" t="s">
         <v>749</v>
       </c>
     </row>
@@ -38349,7 +38435,7 @@
       <c r="C7" s="56" t="s">
         <v>720</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="56" t="s">
         <v>750</v>
       </c>
     </row>
@@ -38358,7 +38444,7 @@
       <c r="C8" s="56" t="s">
         <v>721</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="56" t="s">
         <v>751</v>
       </c>
     </row>
@@ -38367,7 +38453,7 @@
       <c r="C9" s="56" t="s">
         <v>722</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="56" t="s">
         <v>752</v>
       </c>
     </row>
@@ -38376,7 +38462,7 @@
       <c r="C10" s="56" t="s">
         <v>723</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="56" t="s">
         <v>753</v>
       </c>
     </row>
@@ -38385,7 +38471,7 @@
       <c r="C11" s="56" t="s">
         <v>724</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="56" t="s">
         <v>754</v>
       </c>
     </row>
@@ -38394,7 +38480,7 @@
       <c r="C12" s="56" t="s">
         <v>725</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="56" t="s">
         <v>755</v>
       </c>
     </row>
@@ -38403,7 +38489,7 @@
       <c r="C13" s="56" t="s">
         <v>726</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="56" t="s">
         <v>756</v>
       </c>
     </row>
@@ -38412,7 +38498,7 @@
       <c r="C14" s="56" t="s">
         <v>727</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="56" t="s">
         <v>757</v>
       </c>
     </row>
@@ -38421,7 +38507,7 @@
       <c r="C15" s="56" t="s">
         <v>728</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="56" t="s">
         <v>758</v>
       </c>
     </row>
@@ -38430,7 +38516,7 @@
       <c r="C16" s="56" t="s">
         <v>729</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="56" t="s">
         <v>759</v>
       </c>
     </row>
@@ -38439,7 +38525,7 @@
       <c r="C17" s="56" t="s">
         <v>730</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="56" t="s">
         <v>760</v>
       </c>
     </row>
@@ -38448,7 +38534,7 @@
       <c r="C18" s="56" t="s">
         <v>731</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="56" t="s">
         <v>761</v>
       </c>
     </row>
@@ -38457,7 +38543,7 @@
       <c r="C19" s="56" t="s">
         <v>732</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="56" t="s">
         <v>762</v>
       </c>
     </row>
@@ -38466,7 +38552,7 @@
       <c r="C20" s="56" t="s">
         <v>733</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="56" t="s">
         <v>763</v>
       </c>
     </row>
@@ -38475,7 +38561,7 @@
       <c r="C21" s="56" t="s">
         <v>734</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="56" t="s">
         <v>764</v>
       </c>
     </row>
@@ -38486,7 +38572,7 @@
       <c r="C22" s="56" t="s">
         <v>736</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="56" t="s">
         <v>765</v>
       </c>
     </row>
@@ -38494,7 +38580,7 @@
       <c r="B23" s="46" t="s">
         <v>737</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="56" t="s">
         <v>766</v>
       </c>
     </row>
@@ -38503,7 +38589,7 @@
       <c r="C24" s="56" t="s">
         <v>738</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="56" t="s">
         <v>767</v>
       </c>
     </row>
@@ -38512,7 +38598,7 @@
       <c r="C25" s="56" t="s">
         <v>739</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="56" t="s">
         <v>768</v>
       </c>
     </row>
@@ -38521,7 +38607,7 @@
       <c r="C26" s="56" t="s">
         <v>740</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="56" t="s">
         <v>769</v>
       </c>
     </row>
@@ -38530,7 +38616,7 @@
       <c r="C27" s="56" t="s">
         <v>741</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="56" t="s">
         <v>770</v>
       </c>
     </row>
@@ -38539,7 +38625,7 @@
       <c r="C28" s="56" t="s">
         <v>742</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="56" t="s">
         <v>771</v>
       </c>
     </row>
@@ -38550,7 +38636,7 @@
       <c r="C29" s="56" t="s">
         <v>710</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="56" t="s">
         <v>773</v>
       </c>
     </row>
@@ -38561,7 +38647,7 @@
       <c r="C30" s="56" t="s">
         <v>772</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="56" t="s">
         <v>774</v>
       </c>
     </row>
@@ -38572,7 +38658,7 @@
       <c r="C31" s="56" t="s">
         <v>772</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="56" t="s">
         <v>775</v>
       </c>
     </row>
@@ -38583,7 +38669,7 @@
       <c r="C32" s="56" t="s">
         <v>736</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="56" t="s">
         <v>776</v>
       </c>
     </row>
@@ -38594,7 +38680,7 @@
       <c r="C33" s="56" t="s">
         <v>736</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="56" t="s">
         <v>777</v>
       </c>
     </row>
@@ -38605,7 +38691,7 @@
       <c r="C34" s="56" t="s">
         <v>736</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="56" t="s">
         <v>792</v>
       </c>
     </row>
@@ -38616,7 +38702,7 @@
       <c r="C35" s="56" t="s">
         <v>736</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="56" t="s">
         <v>793</v>
       </c>
     </row>
@@ -38627,7 +38713,7 @@
       <c r="C36" s="56" t="s">
         <v>736</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="56" t="s">
         <v>794</v>
       </c>
     </row>
@@ -38638,7 +38724,7 @@
       <c r="C37" s="56" t="s">
         <v>790</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="56" t="s">
         <v>795</v>
       </c>
     </row>
@@ -38649,6 +38735,9 @@
       <c r="C38" s="56" t="s">
         <v>710</v>
       </c>
+      <c r="D38" s="56" t="s">
+        <v>796</v>
+      </c>
     </row>
     <row r="39" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="75" t="s">
@@ -38657,6 +38746,9 @@
       <c r="C39" s="56" t="s">
         <v>736</v>
       </c>
+      <c r="D39" s="56" t="s">
+        <v>797</v>
+      </c>
     </row>
     <row r="40" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="75" t="s">
@@ -38665,6 +38757,9 @@
       <c r="C40" s="56" t="s">
         <v>791</v>
       </c>
+      <c r="D40" s="56" t="s">
+        <v>798</v>
+      </c>
     </row>
     <row r="41" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="75" t="s">
@@ -38673,6 +38768,9 @@
       <c r="C41" s="56" t="s">
         <v>736</v>
       </c>
+      <c r="D41" s="56" t="s">
+        <v>799</v>
+      </c>
     </row>
     <row r="42" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="75" t="s">
@@ -38681,6 +38779,9 @@
       <c r="C42" s="56" t="s">
         <v>790</v>
       </c>
+      <c r="D42" s="56" t="s">
+        <v>800</v>
+      </c>
     </row>
     <row r="43" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="75" t="s">
@@ -38689,6 +38790,9 @@
       <c r="C43" s="56" t="s">
         <v>789</v>
       </c>
+      <c r="D43" s="56" t="s">
+        <v>801</v>
+      </c>
     </row>
     <row r="44" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="75" t="s">
@@ -38696,6 +38800,9 @@
       </c>
       <c r="C44" s="56" t="s">
         <v>789</v>
+      </c>
+      <c r="D44" s="56" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/音视频/ffmpeg/ffmpeg表.xlsx
+++ b/音视频/ffmpeg/ffmpeg表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5720" yWindow="460" windowWidth="30640" windowHeight="18720" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="5700" yWindow="480" windowWidth="30640" windowHeight="18720" tabRatio="500" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="工作表3" sheetId="3" r:id="rId6"/>
     <sheet name="ffmpge解析mp4" sheetId="8" r:id="rId7"/>
     <sheet name="mp4封装" sheetId="9" r:id="rId8"/>
-    <sheet name="mvhd" sheetId="6" r:id="rId9"/>
+    <sheet name="工作表10" sheetId="10" r:id="rId9"/>
+    <sheet name="mvhd" sheetId="6" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="txtTest" localSheetId="3">工作表2!$A$1:$A$200</definedName>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2153" uniqueCount="803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="827">
   <si>
     <t>参数</t>
     <rPh sb="0" eb="1">
@@ -7248,6 +7249,105 @@
     <rPh sb="4" eb="5">
       <t>fu</t>
     </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ffmpeg切片segment参数</t>
+    <rPh sb="15" eb="16">
+      <t>can'shu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reference_stream</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>segment_format</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>segment_format_options</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>segment_list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>segment_list_flags</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>segment_list_size</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>segment_list_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>segment_atclocktime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>segment_clocktime_offset</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>segment_clocktime_wrap_duration</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>segment_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>segment_time_delta</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>segment_times</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>segment_frames</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>segment_wrap</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>segment_list_entry_prefix</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>segment_start_numbber</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>strftime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>break_non_keyframes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>individual_header_trailer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>write_header_trailer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reset_timestamps</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>initial_offset</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -23105,6 +23205,275 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="51" customWidth="1"/>
+    <col min="4" max="4" width="86.83203125" customWidth="1"/>
+    <col min="5" max="11" width="15.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="47" t="s">
+        <v>649</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+    </row>
+    <row r="3" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>650</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>656</v>
+      </c>
+      <c r="C4" s="51">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>657</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>671</v>
+      </c>
+      <c r="D5" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>658</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>672</v>
+      </c>
+      <c r="D6" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>659</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>673</v>
+      </c>
+      <c r="D7" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>660</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>671</v>
+      </c>
+      <c r="D8" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>661</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>671</v>
+      </c>
+      <c r="D9" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>651</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>670</v>
+      </c>
+      <c r="D10" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>652</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>670</v>
+      </c>
+      <c r="D11" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>662</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>670</v>
+      </c>
+      <c r="D12" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>669</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>674</v>
+      </c>
+      <c r="D13" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>663</v>
+      </c>
+      <c r="C14" s="51" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>664</v>
+      </c>
+      <c r="C15" s="51" t="s">
+        <v>676</v>
+      </c>
+      <c r="D15" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>665</v>
+      </c>
+      <c r="C16" s="51" t="s">
+        <v>671</v>
+      </c>
+      <c r="D16" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>666</v>
+      </c>
+      <c r="C17" s="51" t="s">
+        <v>671</v>
+      </c>
+      <c r="D17" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>653</v>
+      </c>
+      <c r="C18" s="51" t="s">
+        <v>670</v>
+      </c>
+      <c r="D18" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>654</v>
+      </c>
+      <c r="C19" s="51" t="s">
+        <v>670</v>
+      </c>
+      <c r="D19" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>655</v>
+      </c>
+      <c r="C20" s="51" t="s">
+        <v>670</v>
+      </c>
+      <c r="D20" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>667</v>
+      </c>
+      <c r="C21" s="51" t="s">
+        <v>670</v>
+      </c>
+      <c r="D21" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>668</v>
+      </c>
+      <c r="C22" s="51" t="s">
+        <v>670</v>
+      </c>
+      <c r="D22" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:D2"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:I2587"/>
@@ -38380,7 +38749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D528"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+    <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
@@ -39302,256 +39671,160 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D40"/>
+  <dimension ref="C2:E140"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="51" customWidth="1"/>
-    <col min="4" max="4" width="86.83203125" customWidth="1"/>
-    <col min="5" max="11" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+    <col min="3" max="3" width="45.83203125" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" customWidth="1"/>
+    <col min="5" max="5" width="62.33203125" customWidth="1"/>
+    <col min="6" max="14" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="47" t="s">
-        <v>649</v>
-      </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-    </row>
-    <row r="3" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="53" t="s">
-        <v>650</v>
-      </c>
-      <c r="D3" s="49" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>656</v>
-      </c>
-      <c r="C4" s="51">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>657</v>
-      </c>
-      <c r="C5" s="51" t="s">
-        <v>671</v>
-      </c>
-      <c r="D5" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>658</v>
-      </c>
-      <c r="C6" s="51" t="s">
-        <v>672</v>
-      </c>
-      <c r="D6" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>659</v>
-      </c>
-      <c r="C7" s="51" t="s">
-        <v>673</v>
-      </c>
-      <c r="D7" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>660</v>
-      </c>
-      <c r="C8" s="51" t="s">
-        <v>671</v>
-      </c>
-      <c r="D8" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>661</v>
-      </c>
-      <c r="C9" s="51" t="s">
-        <v>671</v>
-      </c>
-      <c r="D9" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>651</v>
-      </c>
-      <c r="C10" s="51" t="s">
-        <v>670</v>
-      </c>
-      <c r="D10" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>652</v>
-      </c>
-      <c r="C11" s="51" t="s">
-        <v>670</v>
-      </c>
-      <c r="D11" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>662</v>
-      </c>
-      <c r="C12" s="51" t="s">
-        <v>670</v>
-      </c>
-      <c r="D12" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>669</v>
-      </c>
-      <c r="C13" s="51" t="s">
-        <v>674</v>
-      </c>
-      <c r="D13" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>663</v>
-      </c>
-      <c r="C14" s="51" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>664</v>
-      </c>
-      <c r="C15" s="51" t="s">
-        <v>676</v>
-      </c>
-      <c r="D15" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>665</v>
-      </c>
-      <c r="C16" s="51" t="s">
-        <v>671</v>
-      </c>
-      <c r="D16" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>666</v>
-      </c>
-      <c r="C17" s="51" t="s">
-        <v>671</v>
-      </c>
-      <c r="D17" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>653</v>
-      </c>
-      <c r="C18" s="51" t="s">
-        <v>670</v>
-      </c>
-      <c r="D18" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>654</v>
-      </c>
-      <c r="C19" s="51" t="s">
-        <v>670</v>
-      </c>
-      <c r="D19" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>655</v>
-      </c>
-      <c r="C20" s="51" t="s">
-        <v>670</v>
-      </c>
-      <c r="D20" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>667</v>
-      </c>
-      <c r="C21" s="51" t="s">
-        <v>670</v>
-      </c>
-      <c r="D21" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>668</v>
-      </c>
-      <c r="C22" s="51" t="s">
-        <v>670</v>
-      </c>
-      <c r="D22" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="3:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="47" t="s">
+        <v>803</v>
+      </c>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+    </row>
+    <row r="5" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="3:3" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="3:3" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="3:3" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -39560,9 +39833,109 @@
     <row r="38" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="39" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="40" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="C4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/音视频/ffmpeg/ffmpeg表.xlsx
+++ b/音视频/ffmpeg/ffmpeg表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5700" yWindow="480" windowWidth="30640" windowHeight="18720" tabRatio="500" activeTab="8"/>
+    <workbookView xWindow="5680" yWindow="480" windowWidth="30640" windowHeight="18720" tabRatio="500" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2233" uniqueCount="861">
   <si>
     <t>参数</t>
     <rPh sb="0" eb="1">
@@ -7348,6 +7348,538 @@
   </si>
   <si>
     <t>initial_offset</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签</t>
+    <rPh sb="0" eb="1">
+      <t>biao'q</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整数</t>
+    <rPh sb="0" eb="1">
+      <t>z's</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间值</t>
+    <rPh sb="0" eb="1">
+      <t>shi'j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>切片参考用的stream</t>
+    <rPh sb="0" eb="1">
+      <t>qie'p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>can'k</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yogn</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>切片文件格式</t>
+    <rPh sb="0" eb="1">
+      <t>qie'p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wen'j</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ge's</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>切片格式的私有操作参数</t>
+    <rPh sb="0" eb="1">
+      <t>qie'p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ge'shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>si'you</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>cao'zuo</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>can'shu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>切片列表文件名</t>
+    <rPh sb="0" eb="1">
+      <t>qie'p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lie'b</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wen'jian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ming</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m3u8切片的存在形式</t>
+    <rPh sb="4" eb="5">
+      <t>qie'p</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>cun'z</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xing'shi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>live</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cache</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表文件长度</t>
+    <rPh sb="0" eb="1">
+      <t>lie'b</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wen'j</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>chang'd</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表类型</t>
+    <rPh sb="0" eb="1">
+      <t>lie'b</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lei'x</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>flat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>csv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ext</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ffconcat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">m3u8 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hls</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时钟频率生效参数, 启动定时切片间隔用</t>
+    <rPh sb="0" eb="1">
+      <t>shi'zhon</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pin'l</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shegn'x</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>can'shu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>qi'dong</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ding'shi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>qie'p</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>jian'ge</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>yong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>切片时钟偏移</t>
+    <rPh sb="0" eb="1">
+      <t>qie'p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'zho</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pian'yi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>切片时钟回滚duration</t>
+    <rPh sb="0" eb="1">
+      <t>qie'p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'z</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>hui'gun</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>切片的duration</t>
+    <rPh sb="0" eb="1">
+      <t>qie'p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于设置切片变化时间值</t>
+    <rPh sb="0" eb="1">
+      <t>yong'yu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>she'zhi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>qie'p</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bian'hua</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi'j</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置切片的时间点</t>
+    <rPh sb="0" eb="1">
+      <t>she'zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qie'p</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi'j</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>dian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置切片的帧位置</t>
+    <rPh sb="0" eb="1">
+      <t>she'zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qie'p</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhen</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wei'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表回滚阈值</t>
+    <rPh sb="0" eb="1">
+      <t>lie'b</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hui'gun</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fa'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>写文件列表时写入每个切片路径的前置路径</t>
+    <rPh sb="0" eb="1">
+      <t>xie</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>wen'jian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>lie'biao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xie'ru</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>mei'ge</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>qie'p</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>lu'j</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>qian'zhi</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>lu'j</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表中切片的起始基数</t>
+    <rPh sb="0" eb="1">
+      <t>lie'b</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qie'p</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>qi's</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ji'shu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置切片名为生成切片的时间点</t>
+    <rPh sb="0" eb="1">
+      <t>she'zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qie'p</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ming</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>sheng'c</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qie'p</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>d</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shi'jian'dian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽略关键帧按照时间切片</t>
+    <rPh sb="0" eb="1">
+      <t>hu'l</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guan'jian'z</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>an'z</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shi'jian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>qie'p</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认在每个切片中都写入头文件和文件结束容器</t>
+    <rPh sb="0" eb="1">
+      <t>mo'ren</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>mei'ge</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qie'p</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>dou'xie</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ru</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>tou'wen'jian</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>he</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>jie's</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>rong'q</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>只在第一个文件写入文件头以及在最后一个文件写入文件结束容器</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'zai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>di'yi'ge</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wen'j</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xie'ru</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>wen'jian</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>tou</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>yi'ji</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>zui'hou</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>yi'ge</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>wen'j</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>xie'ru</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>wen'j</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>jie's</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>rong'n'qi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个切片都重新初始化时间戳</t>
+    <rPh sb="0" eb="1">
+      <t>mei'g</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qie'p</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chong'x</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>chu'shi'hua</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shi'jian'c</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置初始化时间戳偏移</t>
+    <rPh sb="0" eb="1">
+      <t>she'zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chu'shi'hua</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi'jian'c</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>pian'yi</t>
+    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -7728,7 +8260,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7871,6 +8403,9 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7897,6 +8432,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="25">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -23573,18 +24111,18 @@
       </c>
     </row>
     <row r="12" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="69" t="s">
         <v>497</v>
       </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="71" t="s">
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="72" t="s">
         <v>512</v>
       </c>
-      <c r="I12" s="72" t="s">
+      <c r="I12" s="73" t="s">
         <v>516</v>
       </c>
     </row>
@@ -24282,16 +24820,16 @@
       </c>
     </row>
     <row r="62" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="68" t="s">
+      <c r="B62" s="69" t="s">
         <v>562</v>
       </c>
-      <c r="C62" s="68"/>
-      <c r="D62" s="68"/>
-      <c r="E62" s="68"/>
-      <c r="F62" s="68"/>
-      <c r="G62" s="68"/>
-      <c r="H62" s="71"/>
-      <c r="I62" s="73" t="s">
+      <c r="C62" s="69"/>
+      <c r="D62" s="69"/>
+      <c r="E62" s="69"/>
+      <c r="F62" s="69"/>
+      <c r="G62" s="69"/>
+      <c r="H62" s="72"/>
+      <c r="I62" s="74" t="s">
         <v>598</v>
       </c>
     </row>
@@ -24354,10 +24892,10 @@
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="66"/>
+      <c r="F66" s="67"/>
       <c r="G66" s="1"/>
       <c r="H66" s="9"/>
-      <c r="I66" s="67" t="s">
+      <c r="I66" s="68" t="s">
         <v>623</v>
       </c>
     </row>
@@ -24368,10 +24906,10 @@
         <v>601</v>
       </c>
       <c r="E67" s="1"/>
-      <c r="F67" s="66"/>
+      <c r="F67" s="67"/>
       <c r="G67" s="1"/>
       <c r="H67" s="9"/>
-      <c r="I67" s="67" t="s">
+      <c r="I67" s="68" t="s">
         <v>624</v>
       </c>
     </row>
@@ -24382,10 +24920,10 @@
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
-      <c r="F68" s="66"/>
+      <c r="F68" s="67"/>
       <c r="G68" s="1"/>
       <c r="H68" s="9"/>
-      <c r="I68" s="67" t="s">
+      <c r="I68" s="68" t="s">
         <v>625</v>
       </c>
     </row>
@@ -24396,12 +24934,12 @@
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
-      <c r="F69" s="66"/>
+      <c r="F69" s="67"/>
       <c r="G69" s="1"/>
       <c r="H69" s="9" t="s">
         <v>513</v>
       </c>
-      <c r="I69" s="67" t="s">
+      <c r="I69" s="68" t="s">
         <v>626</v>
       </c>
     </row>
@@ -24412,10 +24950,10 @@
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="66"/>
+      <c r="F70" s="67"/>
       <c r="G70" s="1"/>
       <c r="H70" s="9"/>
-      <c r="I70" s="67" t="s">
+      <c r="I70" s="68" t="s">
         <v>565</v>
       </c>
     </row>
@@ -24426,10 +24964,10 @@
         <v>533</v>
       </c>
       <c r="E71" s="1"/>
-      <c r="F71" s="66"/>
+      <c r="F71" s="67"/>
       <c r="G71" s="1"/>
       <c r="H71" s="9"/>
-      <c r="I71" s="67" t="s">
+      <c r="I71" s="68" t="s">
         <v>627</v>
       </c>
     </row>
@@ -24440,10 +24978,10 @@
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="66"/>
+      <c r="F72" s="67"/>
       <c r="G72" s="1"/>
       <c r="H72" s="9"/>
-      <c r="I72" s="67" t="s">
+      <c r="I72" s="68" t="s">
         <v>647</v>
       </c>
     </row>
@@ -24454,10 +24992,10 @@
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
-      <c r="F73" s="66"/>
+      <c r="F73" s="67"/>
       <c r="G73" s="1"/>
       <c r="H73" s="9"/>
-      <c r="I73" s="67" t="s">
+      <c r="I73" s="68" t="s">
         <v>628</v>
       </c>
     </row>
@@ -24468,10 +25006,10 @@
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
-      <c r="F74" s="66"/>
+      <c r="F74" s="67"/>
       <c r="G74" s="1"/>
       <c r="H74" s="9"/>
-      <c r="I74" s="67" t="s">
+      <c r="I74" s="68" t="s">
         <v>629</v>
       </c>
     </row>
@@ -24482,10 +25020,10 @@
         <v>605</v>
       </c>
       <c r="E75" s="1"/>
-      <c r="F75" s="66"/>
+      <c r="F75" s="67"/>
       <c r="G75" s="1"/>
       <c r="H75" s="9"/>
-      <c r="I75" s="67" t="s">
+      <c r="I75" s="68" t="s">
         <v>630</v>
       </c>
     </row>
@@ -24496,10 +25034,10 @@
       <c r="E76" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="F76" s="66"/>
+      <c r="F76" s="67"/>
       <c r="G76" s="1"/>
       <c r="H76" s="9"/>
-      <c r="I76" s="67" t="s">
+      <c r="I76" s="68" t="s">
         <v>631</v>
       </c>
     </row>
@@ -24510,10 +25048,10 @@
       <c r="E77" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="F77" s="66"/>
+      <c r="F77" s="67"/>
       <c r="G77" s="1"/>
       <c r="H77" s="9"/>
-      <c r="I77" s="67" t="s">
+      <c r="I77" s="68" t="s">
         <v>648</v>
       </c>
     </row>
@@ -24524,10 +25062,10 @@
       <c r="E78" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="F78" s="66"/>
+      <c r="F78" s="67"/>
       <c r="G78" s="1"/>
       <c r="H78" s="9"/>
-      <c r="I78" s="67" t="s">
+      <c r="I78" s="68" t="s">
         <v>632</v>
       </c>
     </row>
@@ -24538,10 +25076,10 @@
       <c r="E79" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="F79" s="66"/>
+      <c r="F79" s="67"/>
       <c r="G79" s="1"/>
       <c r="H79" s="9"/>
-      <c r="I79" s="67" t="s">
+      <c r="I79" s="68" t="s">
         <v>633</v>
       </c>
     </row>
@@ -24552,10 +25090,10 @@
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
-      <c r="F80" s="66"/>
+      <c r="F80" s="67"/>
       <c r="G80" s="1"/>
       <c r="H80" s="9"/>
-      <c r="I80" s="67" t="s">
+      <c r="I80" s="68" t="s">
         <v>634</v>
       </c>
     </row>
@@ -24566,10 +25104,10 @@
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
-      <c r="F81" s="66"/>
+      <c r="F81" s="67"/>
       <c r="G81" s="1"/>
       <c r="H81" s="9"/>
-      <c r="I81" s="67" t="s">
+      <c r="I81" s="68" t="s">
         <v>635</v>
       </c>
     </row>
@@ -24580,10 +25118,10 @@
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
-      <c r="F82" s="66"/>
+      <c r="F82" s="67"/>
       <c r="G82" s="1"/>
       <c r="H82" s="9"/>
-      <c r="I82" s="67" t="s">
+      <c r="I82" s="68" t="s">
         <v>636</v>
       </c>
     </row>
@@ -24594,10 +25132,10 @@
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
-      <c r="F83" s="66"/>
+      <c r="F83" s="67"/>
       <c r="G83" s="1"/>
       <c r="H83" s="9"/>
-      <c r="I83" s="67" t="s">
+      <c r="I83" s="68" t="s">
         <v>637</v>
       </c>
     </row>
@@ -24608,10 +25146,10 @@
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
-      <c r="F84" s="66"/>
+      <c r="F84" s="67"/>
       <c r="G84" s="1"/>
       <c r="H84" s="9"/>
-      <c r="I84" s="67" t="s">
+      <c r="I84" s="68" t="s">
         <v>638</v>
       </c>
     </row>
@@ -24622,10 +25160,10 @@
         <v>615</v>
       </c>
       <c r="E85" s="1"/>
-      <c r="F85" s="66"/>
+      <c r="F85" s="67"/>
       <c r="G85" s="1"/>
       <c r="H85" s="9"/>
-      <c r="I85" s="67" t="s">
+      <c r="I85" s="68" t="s">
         <v>639</v>
       </c>
     </row>
@@ -24636,10 +25174,10 @@
       <c r="E86" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="F86" s="66"/>
+      <c r="F86" s="67"/>
       <c r="G86" s="1"/>
       <c r="H86" s="9"/>
-      <c r="I86" s="67" t="s">
+      <c r="I86" s="68" t="s">
         <v>640</v>
       </c>
     </row>
@@ -24650,10 +25188,10 @@
       <c r="E87" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="F87" s="66"/>
+      <c r="F87" s="67"/>
       <c r="G87" s="1"/>
       <c r="H87" s="9"/>
-      <c r="I87" s="67" t="s">
+      <c r="I87" s="68" t="s">
         <v>641</v>
       </c>
     </row>
@@ -24664,10 +25202,10 @@
         <v>618</v>
       </c>
       <c r="E88" s="1"/>
-      <c r="F88" s="66"/>
+      <c r="F88" s="67"/>
       <c r="G88" s="1"/>
       <c r="H88" s="9"/>
-      <c r="I88" s="67" t="s">
+      <c r="I88" s="68" t="s">
         <v>642</v>
       </c>
     </row>
@@ -24678,10 +25216,10 @@
         <v>619</v>
       </c>
       <c r="E89" s="1"/>
-      <c r="F89" s="66"/>
+      <c r="F89" s="67"/>
       <c r="G89" s="1"/>
       <c r="H89" s="9"/>
-      <c r="I89" s="67" t="s">
+      <c r="I89" s="68" t="s">
         <v>643</v>
       </c>
     </row>
@@ -24692,10 +25230,10 @@
         <v>620</v>
       </c>
       <c r="E90" s="1"/>
-      <c r="F90" s="66"/>
+      <c r="F90" s="67"/>
       <c r="G90" s="1"/>
       <c r="H90" s="9"/>
-      <c r="I90" s="67" t="s">
+      <c r="I90" s="68" t="s">
         <v>644</v>
       </c>
     </row>
@@ -24706,10 +25244,10 @@
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="66"/>
+      <c r="F91" s="67"/>
       <c r="G91" s="1"/>
       <c r="H91" s="9"/>
-      <c r="I91" s="67" t="s">
+      <c r="I91" s="68" t="s">
         <v>645</v>
       </c>
     </row>
@@ -24720,10 +25258,10 @@
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
-      <c r="F92" s="66"/>
+      <c r="F92" s="67"/>
       <c r="G92" s="1"/>
       <c r="H92" s="9"/>
-      <c r="I92" s="67" t="s">
+      <c r="I92" s="68" t="s">
         <v>646</v>
       </c>
     </row>
@@ -24735,11 +25273,11 @@
     <row r="95" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="96" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="97" spans="2:4" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="74" t="s">
+      <c r="B97" s="75" t="s">
         <v>649</v>
       </c>
-      <c r="C97" s="74"/>
-      <c r="D97" s="74"/>
+      <c r="C97" s="75"/>
+      <c r="D97" s="75"/>
     </row>
     <row r="98" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
@@ -27342,33 +27880,33 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="24" x14ac:dyDescent="0.25">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="69" t="s">
         <v>497</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="71" t="s">
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="72" t="s">
         <v>512</v>
       </c>
-      <c r="H6" s="72" t="s">
+      <c r="H6" s="73" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="70" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A7" s="68"/>
-      <c r="B7" s="68" t="s">
+    <row r="7" spans="1:8" s="71" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A7" s="69"/>
+      <c r="B7" s="69" t="s">
         <v>498</v>
       </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="69"/>
-      <c r="G7" s="71" t="s">
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="70"/>
+      <c r="G7" s="72" t="s">
         <v>512</v>
       </c>
-      <c r="H7" s="72" t="s">
+      <c r="H7" s="73" t="s">
         <v>517</v>
       </c>
     </row>
@@ -28080,16 +28618,16 @@
       </c>
     </row>
     <row r="56" spans="1:8" ht="23" x14ac:dyDescent="0.25">
-      <c r="A56" s="68" t="s">
+      <c r="A56" s="69" t="s">
         <v>562</v>
       </c>
-      <c r="B56" s="68"/>
-      <c r="C56" s="68"/>
-      <c r="D56" s="68"/>
-      <c r="E56" s="68"/>
-      <c r="F56" s="68"/>
-      <c r="G56" s="71"/>
-      <c r="H56" s="73" t="s">
+      <c r="B56" s="69"/>
+      <c r="C56" s="69"/>
+      <c r="D56" s="69"/>
+      <c r="E56" s="69"/>
+      <c r="F56" s="69"/>
+      <c r="G56" s="72"/>
+      <c r="H56" s="74" t="s">
         <v>598</v>
       </c>
     </row>
@@ -28154,10 +28692,10 @@
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
-      <c r="E60" s="66"/>
+      <c r="E60" s="67"/>
       <c r="F60" s="1"/>
       <c r="G60" s="9"/>
-      <c r="H60" s="67" t="s">
+      <c r="H60" s="68" t="s">
         <v>623</v>
       </c>
     </row>
@@ -28168,10 +28706,10 @@
         <v>601</v>
       </c>
       <c r="D61" s="1"/>
-      <c r="E61" s="66"/>
+      <c r="E61" s="67"/>
       <c r="F61" s="1"/>
       <c r="G61" s="9"/>
-      <c r="H61" s="67" t="s">
+      <c r="H61" s="68" t="s">
         <v>624</v>
       </c>
     </row>
@@ -28182,10 +28720,10 @@
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
-      <c r="E62" s="66"/>
+      <c r="E62" s="67"/>
       <c r="F62" s="1"/>
       <c r="G62" s="9"/>
-      <c r="H62" s="67" t="s">
+      <c r="H62" s="68" t="s">
         <v>625</v>
       </c>
     </row>
@@ -28196,12 +28734,12 @@
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
-      <c r="E63" s="66"/>
+      <c r="E63" s="67"/>
       <c r="F63" s="1"/>
       <c r="G63" s="9" t="s">
         <v>513</v>
       </c>
-      <c r="H63" s="67" t="s">
+      <c r="H63" s="68" t="s">
         <v>626</v>
       </c>
     </row>
@@ -28212,10 +28750,10 @@
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
-      <c r="E64" s="66"/>
+      <c r="E64" s="67"/>
       <c r="F64" s="1"/>
       <c r="G64" s="9"/>
-      <c r="H64" s="67" t="s">
+      <c r="H64" s="68" t="s">
         <v>565</v>
       </c>
     </row>
@@ -28226,10 +28764,10 @@
         <v>533</v>
       </c>
       <c r="D65" s="1"/>
-      <c r="E65" s="66"/>
+      <c r="E65" s="67"/>
       <c r="F65" s="1"/>
       <c r="G65" s="9"/>
-      <c r="H65" s="67" t="s">
+      <c r="H65" s="68" t="s">
         <v>627</v>
       </c>
     </row>
@@ -28240,10 +28778,10 @@
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
-      <c r="E66" s="66"/>
+      <c r="E66" s="67"/>
       <c r="F66" s="1"/>
       <c r="G66" s="9"/>
-      <c r="H66" s="67" t="s">
+      <c r="H66" s="68" t="s">
         <v>647</v>
       </c>
     </row>
@@ -28254,10 +28792,10 @@
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
-      <c r="E67" s="66"/>
+      <c r="E67" s="67"/>
       <c r="F67" s="1"/>
       <c r="G67" s="9"/>
-      <c r="H67" s="67" t="s">
+      <c r="H67" s="68" t="s">
         <v>628</v>
       </c>
     </row>
@@ -28268,10 +28806,10 @@
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
-      <c r="E68" s="66"/>
+      <c r="E68" s="67"/>
       <c r="F68" s="1"/>
       <c r="G68" s="9"/>
-      <c r="H68" s="67" t="s">
+      <c r="H68" s="68" t="s">
         <v>629</v>
       </c>
     </row>
@@ -28282,10 +28820,10 @@
         <v>605</v>
       </c>
       <c r="D69" s="1"/>
-      <c r="E69" s="66"/>
+      <c r="E69" s="67"/>
       <c r="F69" s="1"/>
       <c r="G69" s="9"/>
-      <c r="H69" s="67" t="s">
+      <c r="H69" s="68" t="s">
         <v>630</v>
       </c>
     </row>
@@ -28296,10 +28834,10 @@
       <c r="D70" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="E70" s="66"/>
+      <c r="E70" s="67"/>
       <c r="F70" s="1"/>
       <c r="G70" s="9"/>
-      <c r="H70" s="67" t="s">
+      <c r="H70" s="68" t="s">
         <v>631</v>
       </c>
     </row>
@@ -28310,10 +28848,10 @@
       <c r="D71" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="E71" s="66"/>
+      <c r="E71" s="67"/>
       <c r="F71" s="1"/>
       <c r="G71" s="9"/>
-      <c r="H71" s="67" t="s">
+      <c r="H71" s="68" t="s">
         <v>648</v>
       </c>
     </row>
@@ -28324,10 +28862,10 @@
       <c r="D72" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="E72" s="66"/>
+      <c r="E72" s="67"/>
       <c r="F72" s="1"/>
       <c r="G72" s="9"/>
-      <c r="H72" s="67" t="s">
+      <c r="H72" s="68" t="s">
         <v>632</v>
       </c>
     </row>
@@ -28338,10 +28876,10 @@
       <c r="D73" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="E73" s="66"/>
+      <c r="E73" s="67"/>
       <c r="F73" s="1"/>
       <c r="G73" s="9"/>
-      <c r="H73" s="67" t="s">
+      <c r="H73" s="68" t="s">
         <v>633</v>
       </c>
     </row>
@@ -28352,10 +28890,10 @@
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
-      <c r="E74" s="66"/>
+      <c r="E74" s="67"/>
       <c r="F74" s="1"/>
       <c r="G74" s="9"/>
-      <c r="H74" s="67" t="s">
+      <c r="H74" s="68" t="s">
         <v>634</v>
       </c>
     </row>
@@ -28366,10 +28904,10 @@
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
-      <c r="E75" s="66"/>
+      <c r="E75" s="67"/>
       <c r="F75" s="1"/>
       <c r="G75" s="9"/>
-      <c r="H75" s="67" t="s">
+      <c r="H75" s="68" t="s">
         <v>635</v>
       </c>
     </row>
@@ -28380,10 +28918,10 @@
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
-      <c r="E76" s="66"/>
+      <c r="E76" s="67"/>
       <c r="F76" s="1"/>
       <c r="G76" s="9"/>
-      <c r="H76" s="67" t="s">
+      <c r="H76" s="68" t="s">
         <v>636</v>
       </c>
     </row>
@@ -28394,10 +28932,10 @@
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
-      <c r="E77" s="66"/>
+      <c r="E77" s="67"/>
       <c r="F77" s="1"/>
       <c r="G77" s="9"/>
-      <c r="H77" s="67" t="s">
+      <c r="H77" s="68" t="s">
         <v>637</v>
       </c>
     </row>
@@ -28408,10 +28946,10 @@
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
-      <c r="E78" s="66"/>
+      <c r="E78" s="67"/>
       <c r="F78" s="1"/>
       <c r="G78" s="9"/>
-      <c r="H78" s="67" t="s">
+      <c r="H78" s="68" t="s">
         <v>638</v>
       </c>
     </row>
@@ -28422,10 +28960,10 @@
         <v>615</v>
       </c>
       <c r="D79" s="1"/>
-      <c r="E79" s="66"/>
+      <c r="E79" s="67"/>
       <c r="F79" s="1"/>
       <c r="G79" s="9"/>
-      <c r="H79" s="67" t="s">
+      <c r="H79" s="68" t="s">
         <v>639</v>
       </c>
     </row>
@@ -28436,10 +28974,10 @@
       <c r="D80" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="E80" s="66"/>
+      <c r="E80" s="67"/>
       <c r="F80" s="1"/>
       <c r="G80" s="9"/>
-      <c r="H80" s="67" t="s">
+      <c r="H80" s="68" t="s">
         <v>640</v>
       </c>
     </row>
@@ -28450,10 +28988,10 @@
       <c r="D81" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="E81" s="66"/>
+      <c r="E81" s="67"/>
       <c r="F81" s="1"/>
       <c r="G81" s="9"/>
-      <c r="H81" s="67" t="s">
+      <c r="H81" s="68" t="s">
         <v>641</v>
       </c>
     </row>
@@ -28464,10 +29002,10 @@
         <v>618</v>
       </c>
       <c r="D82" s="1"/>
-      <c r="E82" s="66"/>
+      <c r="E82" s="67"/>
       <c r="F82" s="1"/>
       <c r="G82" s="9"/>
-      <c r="H82" s="67" t="s">
+      <c r="H82" s="68" t="s">
         <v>642</v>
       </c>
     </row>
@@ -28478,10 +29016,10 @@
         <v>619</v>
       </c>
       <c r="D83" s="1"/>
-      <c r="E83" s="66"/>
+      <c r="E83" s="67"/>
       <c r="F83" s="1"/>
       <c r="G83" s="9"/>
-      <c r="H83" s="67" t="s">
+      <c r="H83" s="68" t="s">
         <v>643</v>
       </c>
     </row>
@@ -28492,10 +29030,10 @@
         <v>620</v>
       </c>
       <c r="D84" s="1"/>
-      <c r="E84" s="66"/>
+      <c r="E84" s="67"/>
       <c r="F84" s="1"/>
       <c r="G84" s="9"/>
-      <c r="H84" s="67" t="s">
+      <c r="H84" s="68" t="s">
         <v>644</v>
       </c>
     </row>
@@ -28506,10 +29044,10 @@
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
-      <c r="E85" s="66"/>
+      <c r="E85" s="67"/>
       <c r="F85" s="1"/>
       <c r="G85" s="9"/>
-      <c r="H85" s="67" t="s">
+      <c r="H85" s="68" t="s">
         <v>645</v>
       </c>
     </row>
@@ -28520,10 +29058,10 @@
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
-      <c r="E86" s="66"/>
+      <c r="E86" s="67"/>
       <c r="F86" s="1"/>
       <c r="G86" s="9"/>
-      <c r="H86" s="67" t="s">
+      <c r="H86" s="68" t="s">
         <v>646</v>
       </c>
     </row>
@@ -29584,13 +30122,13 @@
       <c r="D4" s="48"/>
     </row>
     <row r="5" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="76" t="s">
         <v>695</v>
       </c>
-      <c r="D5" s="75" t="s">
+      <c r="D5" s="76" t="s">
         <v>486</v>
       </c>
     </row>
@@ -29598,7 +30136,7 @@
       <c r="B6" s="57" t="s">
         <v>696</v>
       </c>
-      <c r="C6" s="76">
+      <c r="C6" s="77">
         <v>4</v>
       </c>
       <c r="D6" s="57" t="s">
@@ -29609,7 +30147,7 @@
       <c r="B7" s="57" t="s">
         <v>657</v>
       </c>
-      <c r="C7" s="76">
+      <c r="C7" s="77">
         <v>4</v>
       </c>
       <c r="D7" s="57" t="s">
@@ -29620,7 +30158,7 @@
       <c r="B8" s="57" t="s">
         <v>658</v>
       </c>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="77" t="s">
         <v>672</v>
       </c>
       <c r="D8" s="57" t="s">
@@ -29631,10 +30169,10 @@
       <c r="B9" s="57" t="s">
         <v>659</v>
       </c>
-      <c r="C9" s="76" t="s">
+      <c r="C9" s="77" t="s">
         <v>673</v>
       </c>
-      <c r="D9" s="68" t="s">
+      <c r="D9" s="69" t="s">
         <v>702</v>
       </c>
     </row>
@@ -29642,7 +30180,7 @@
       <c r="B10" s="57" t="s">
         <v>697</v>
       </c>
-      <c r="C10" s="76" t="s">
+      <c r="C10" s="77" t="s">
         <v>674</v>
       </c>
       <c r="D10" s="57" t="s">
@@ -29653,7 +30191,7 @@
       <c r="B11" s="57" t="s">
         <v>698</v>
       </c>
-      <c r="C11" s="76" t="s">
+      <c r="C11" s="77" t="s">
         <v>699</v>
       </c>
       <c r="D11" s="57" t="s">
@@ -38544,34 +39082,34 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="18.83203125" customWidth="1"/>
-    <col min="3" max="3" width="38" style="78" customWidth="1"/>
+    <col min="3" max="3" width="38" style="79" customWidth="1"/>
     <col min="4" max="4" width="18.83203125" customWidth="1"/>
     <col min="5" max="5" width="69.83203125" customWidth="1"/>
     <col min="6" max="15" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C1" s="77"/>
+      <c r="C1" s="78"/>
       <c r="D1" s="50"/>
       <c r="E1" s="50"/>
     </row>
     <row r="2" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C2" s="77"/>
+      <c r="C2" s="78"/>
       <c r="D2" s="50"/>
       <c r="E2" s="50"/>
     </row>
     <row r="3" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="77"/>
+      <c r="C3" s="78"/>
       <c r="D3" s="50"/>
       <c r="E3" s="50"/>
     </row>
     <row r="4" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="77"/>
+      <c r="C4" s="78"/>
       <c r="D4" s="50"/>
       <c r="E4" s="50"/>
     </row>
     <row r="5" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="77"/>
+      <c r="C5" s="78"/>
       <c r="D5" s="50"/>
       <c r="E5" s="50"/>
     </row>
@@ -38594,132 +39132,132 @@
       </c>
     </row>
     <row r="8" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="79" t="s">
+      <c r="C8" s="80" t="s">
         <v>706</v>
       </c>
-      <c r="D8" s="80" t="s">
+      <c r="D8" s="81" t="s">
         <v>710</v>
       </c>
-      <c r="E8" s="77" t="s">
+      <c r="E8" s="78" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="9" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="81" t="s">
+      <c r="C9" s="82" t="s">
         <v>707</v>
       </c>
-      <c r="D9" s="80" t="s">
+      <c r="D9" s="81" t="s">
         <v>710</v>
       </c>
-      <c r="E9" s="77" t="s">
+      <c r="E9" s="78" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="10" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="81" t="s">
+      <c r="C10" s="82" t="s">
         <v>708</v>
       </c>
-      <c r="D10" s="80" t="s">
+      <c r="D10" s="81" t="s">
         <v>710</v>
       </c>
-      <c r="E10" s="77" t="s">
+      <c r="E10" s="78" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="11" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="81" t="s">
+      <c r="C11" s="82" t="s">
         <v>709</v>
       </c>
-      <c r="D11" s="80" t="s">
+      <c r="D11" s="81" t="s">
         <v>710</v>
       </c>
-      <c r="E11" s="77" t="s">
+      <c r="E11" s="78" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="12" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="81" t="s">
+      <c r="C12" s="82" t="s">
         <v>711</v>
       </c>
-      <c r="D12" s="80" t="s">
+      <c r="D12" s="81" t="s">
         <v>710</v>
       </c>
-      <c r="E12" s="77" t="s">
+      <c r="E12" s="78" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="13" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="77"/>
+      <c r="C13" s="78"/>
       <c r="D13" s="50"/>
       <c r="E13" s="50"/>
     </row>
     <row r="14" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="77"/>
+      <c r="C14" s="78"/>
       <c r="D14" s="50"/>
       <c r="E14" s="50"/>
     </row>
     <row r="15" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="77"/>
+      <c r="C15" s="78"/>
       <c r="D15" s="50"/>
       <c r="E15" s="50"/>
     </row>
     <row r="16" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="77"/>
+      <c r="C16" s="78"/>
       <c r="D16" s="50"/>
       <c r="E16" s="50"/>
     </row>
     <row r="17" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="77"/>
+      <c r="C17" s="78"/>
       <c r="D17" s="50"/>
       <c r="E17" s="50"/>
     </row>
     <row r="18" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="77"/>
+      <c r="C18" s="78"/>
       <c r="D18" s="50"/>
       <c r="E18" s="50"/>
     </row>
     <row r="19" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="77"/>
+      <c r="C19" s="78"/>
       <c r="D19" s="50"/>
       <c r="E19" s="50"/>
     </row>
     <row r="20" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="77"/>
+      <c r="C20" s="78"/>
       <c r="D20" s="50"/>
       <c r="E20" s="50"/>
     </row>
     <row r="21" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="77"/>
+      <c r="C21" s="78"/>
       <c r="D21" s="50"/>
       <c r="E21" s="50"/>
     </row>
     <row r="22" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="77"/>
+      <c r="C22" s="78"/>
       <c r="D22" s="50"/>
       <c r="E22" s="50"/>
     </row>
     <row r="23" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="77"/>
+      <c r="C23" s="78"/>
       <c r="D23" s="50"/>
       <c r="E23" s="50"/>
     </row>
     <row r="24" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="77"/>
+      <c r="C24" s="78"/>
       <c r="D24" s="50"/>
       <c r="E24" s="50"/>
     </row>
     <row r="25" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="77"/>
+      <c r="C25" s="78"/>
       <c r="D25" s="50"/>
       <c r="E25" s="50"/>
     </row>
     <row r="26" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="77"/>
+      <c r="C26" s="78"/>
       <c r="D26" s="50"/>
       <c r="E26" s="50"/>
     </row>
     <row r="27" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C27" s="77"/>
+      <c r="C27" s="78"/>
       <c r="D27" s="50"/>
       <c r="E27" s="50"/>
     </row>
@@ -38756,7 +39294,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.83203125" customWidth="1"/>
-    <col min="2" max="2" width="35" style="75" customWidth="1"/>
+    <col min="2" max="2" width="35" style="76" customWidth="1"/>
     <col min="3" max="3" width="24.6640625" style="56" customWidth="1"/>
     <col min="4" max="4" width="75.33203125" customWidth="1"/>
     <col min="5" max="13" width="18.83203125" customWidth="1"/>
@@ -38772,7 +39310,7 @@
       <c r="D3" s="47"/>
     </row>
     <row r="4" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="76" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="49" t="s">
@@ -38935,7 +39473,7 @@
       </c>
     </row>
     <row r="22" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="75" t="s">
+      <c r="B22" s="76" t="s">
         <v>735</v>
       </c>
       <c r="C22" s="56" t="s">
@@ -38999,7 +39537,7 @@
       </c>
     </row>
     <row r="29" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="75" t="s">
+      <c r="B29" s="76" t="s">
         <v>743</v>
       </c>
       <c r="C29" s="56" t="s">
@@ -39010,7 +39548,7 @@
       </c>
     </row>
     <row r="30" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="75" t="s">
+      <c r="B30" s="76" t="s">
         <v>744</v>
       </c>
       <c r="C30" s="56" t="s">
@@ -39021,7 +39559,7 @@
       </c>
     </row>
     <row r="31" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="75" t="s">
+      <c r="B31" s="76" t="s">
         <v>745</v>
       </c>
       <c r="C31" s="56" t="s">
@@ -39032,7 +39570,7 @@
       </c>
     </row>
     <row r="32" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="75" t="s">
+      <c r="B32" s="76" t="s">
         <v>746</v>
       </c>
       <c r="C32" s="56" t="s">
@@ -39043,7 +39581,7 @@
       </c>
     </row>
     <row r="33" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="75" t="s">
+      <c r="B33" s="76" t="s">
         <v>747</v>
       </c>
       <c r="C33" s="56" t="s">
@@ -39054,7 +39592,7 @@
       </c>
     </row>
     <row r="34" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="75" t="s">
+      <c r="B34" s="76" t="s">
         <v>778</v>
       </c>
       <c r="C34" s="56" t="s">
@@ -39065,7 +39603,7 @@
       </c>
     </row>
     <row r="35" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="75" t="s">
+      <c r="B35" s="76" t="s">
         <v>779</v>
       </c>
       <c r="C35" s="56" t="s">
@@ -39076,7 +39614,7 @@
       </c>
     </row>
     <row r="36" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="75" t="s">
+      <c r="B36" s="76" t="s">
         <v>780</v>
       </c>
       <c r="C36" s="56" t="s">
@@ -39087,7 +39625,7 @@
       </c>
     </row>
     <row r="37" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="75" t="s">
+      <c r="B37" s="76" t="s">
         <v>781</v>
       </c>
       <c r="C37" s="56" t="s">
@@ -39098,7 +39636,7 @@
       </c>
     </row>
     <row r="38" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="75" t="s">
+      <c r="B38" s="76" t="s">
         <v>782</v>
       </c>
       <c r="C38" s="56" t="s">
@@ -39109,7 +39647,7 @@
       </c>
     </row>
     <row r="39" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="75" t="s">
+      <c r="B39" s="76" t="s">
         <v>783</v>
       </c>
       <c r="C39" s="56" t="s">
@@ -39120,7 +39658,7 @@
       </c>
     </row>
     <row r="40" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="75" t="s">
+      <c r="B40" s="76" t="s">
         <v>784</v>
       </c>
       <c r="C40" s="56" t="s">
@@ -39131,7 +39669,7 @@
       </c>
     </row>
     <row r="41" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="75" t="s">
+      <c r="B41" s="76" t="s">
         <v>785</v>
       </c>
       <c r="C41" s="56" t="s">
@@ -39142,7 +39680,7 @@
       </c>
     </row>
     <row r="42" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="75" t="s">
+      <c r="B42" s="76" t="s">
         <v>786</v>
       </c>
       <c r="C42" s="56" t="s">
@@ -39153,7 +39691,7 @@
       </c>
     </row>
     <row r="43" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="75" t="s">
+      <c r="B43" s="76" t="s">
         <v>787</v>
       </c>
       <c r="C43" s="56" t="s">
@@ -39164,7 +39702,7 @@
       </c>
     </row>
     <row r="44" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="75" t="s">
+      <c r="B44" s="76" t="s">
         <v>788</v>
       </c>
       <c r="C44" s="56" t="s">
@@ -39671,10 +40209,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:E140"/>
+  <dimension ref="C2:E148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E36" sqref="C4:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -39682,7 +40220,7 @@
     <col min="2" max="2" width="20.83203125" customWidth="1"/>
     <col min="3" max="3" width="45.83203125" customWidth="1"/>
     <col min="4" max="4" width="20.83203125" customWidth="1"/>
-    <col min="5" max="5" width="62.33203125" customWidth="1"/>
+    <col min="5" max="5" width="82.6640625" customWidth="1"/>
     <col min="6" max="14" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -39696,151 +40234,335 @@
       <c r="E4" s="47"/>
     </row>
     <row r="5" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="76" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
+    <row r="6" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="56" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="7" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
+      <c r="D6" s="66" t="s">
+        <v>790</v>
+      </c>
+      <c r="E6" s="56" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="56" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="8" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
+      <c r="D7" s="66" t="s">
+        <v>790</v>
+      </c>
+      <c r="E7" s="56" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="56" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="9" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
+      <c r="D8" s="66" t="s">
+        <v>790</v>
+      </c>
+      <c r="E8" s="56" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="56" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="10" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
+      <c r="D9" s="66" t="s">
+        <v>790</v>
+      </c>
+      <c r="E9" s="56" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="19" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="11" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
+      <c r="D10" s="66" t="s">
+        <v>827</v>
+      </c>
+      <c r="E10" s="56" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="19"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="56" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="19"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="56" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="56" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="12" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
+      <c r="D13" s="66" t="s">
+        <v>828</v>
+      </c>
+      <c r="E13" s="56" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="19" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="13" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
+      <c r="D14" s="83"/>
+      <c r="E14" s="56" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="19"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="56" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="19"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="56" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="19"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="56" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="19"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="56" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="19"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="56" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="19"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="56" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="56" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="14" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
+      <c r="D21" s="66" t="s">
+        <v>710</v>
+      </c>
+      <c r="E21" s="56" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="56" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="15" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
+      <c r="D22" s="66" t="s">
+        <v>829</v>
+      </c>
+      <c r="E22" s="56" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="56" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="16" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
+      <c r="D23" s="66" t="s">
+        <v>829</v>
+      </c>
+      <c r="E23" s="56" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="56" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="17" spans="3:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
+      <c r="D24" s="66" t="s">
+        <v>790</v>
+      </c>
+      <c r="E24" s="56" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="56" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="18" spans="3:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
+      <c r="D25" s="66" t="s">
+        <v>829</v>
+      </c>
+      <c r="E25" s="56" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="56" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="19" spans="3:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
+      <c r="D26" s="66" t="s">
+        <v>790</v>
+      </c>
+      <c r="E26" s="56" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="56" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="20" spans="3:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
+      <c r="D27" s="66" t="s">
+        <v>790</v>
+      </c>
+      <c r="E27" s="56" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="56" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="21" spans="3:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C21" t="s">
+      <c r="D28" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="56" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="56" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="22" spans="3:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" t="s">
+      <c r="D29" s="66" t="s">
+        <v>790</v>
+      </c>
+      <c r="E29" s="56" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="56" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="23" spans="3:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
+      <c r="D30" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="56" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="56" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="24" spans="3:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
+      <c r="D31" s="66" t="s">
+        <v>710</v>
+      </c>
+      <c r="E31" s="56" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="56" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="25" spans="3:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
+      <c r="D32" s="66" t="s">
+        <v>710</v>
+      </c>
+      <c r="E32" s="56" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="56" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="26" spans="3:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C26" t="s">
+      <c r="D33" s="66" t="s">
+        <v>710</v>
+      </c>
+      <c r="E33" s="56" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="56" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="27" spans="3:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C27" t="s">
+      <c r="D34" s="66" t="s">
+        <v>710</v>
+      </c>
+      <c r="E34" s="56" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="56" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="28" spans="3:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C28" t="s">
+      <c r="D35" s="66" t="s">
+        <v>710</v>
+      </c>
+      <c r="E35" s="56" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="56" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="29" spans="3:3" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="3:3" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="3:3" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="3:3" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="D36" s="66" t="s">
+        <v>829</v>
+      </c>
+      <c r="E36" s="56" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="3:5" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="49" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="50" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -39933,9 +40655,21 @@
     <row r="138" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="139" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="140" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="C4:E4"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C14:C20"/>
+    <mergeCell ref="D14:D20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
